--- a/仕様書/分割/分割-画面仕様.xlsx
+++ b/仕様書/分割/分割-画面仕様.xlsx
@@ -1,37 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GhostCanGuard\File\仕様書\分割\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{342E182D-B89F-45AB-813F-4427067754C8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B40BD66-4212-4060-A44A-58B4E03B798A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="更新履歴" sheetId="3" r:id="rId1"/>
-    <sheet name="画面構成" sheetId="2" r:id="rId2"/>
+    <sheet name="画面仕様" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="72">
   <si>
     <t>ロゴ</t>
     <phoneticPr fontId="1"/>
@@ -132,25 +127,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>（画面のどこかに表示する）Escキーを使って、「メインメニュー」を呼び出すことができる。</t>
-    <rPh sb="1" eb="3">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>ツカ</t>
-    </rPh>
-    <rPh sb="33" eb="34">
-      <t>ヨ</t>
-    </rPh>
-    <rPh sb="35" eb="36">
-      <t>ダ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>クリックした後に、「メインゲーム」シーンに移行</t>
     <rPh sb="6" eb="7">
       <t>アト</t>
@@ -171,48 +147,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>クリックした後に、「タイトル」シーンに移行</t>
-    <rPh sb="6" eb="7">
-      <t>アト</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>イコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>クリックした後に、「メインメニュー」を閉じ、ゲームを再開する。</t>
-    <rPh sb="6" eb="7">
-      <t>アト</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>ト</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>サイカイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>マップ上に存在するギミック。クリックした後、「ギミックメニュー」を呼び出す。</t>
-    <rPh sb="3" eb="4">
-      <t>ジョウ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ソンザイ</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>アト</t>
-    </rPh>
-    <rPh sb="33" eb="34">
-      <t>ヨ</t>
-    </rPh>
-    <rPh sb="35" eb="36">
-      <t>ダ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>（詳細は「ギミック機能説明」に参考）</t>
     <rPh sb="1" eb="3">
       <t>ショウサイ</t>
@@ -379,48 +313,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>チュートリアルは試遊会前週に決めます</t>
-    <rPh sb="8" eb="10">
-      <t>シユウ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>カイ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>マエ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>シュウ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>キ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>道具欄</t>
-    <rPh sb="0" eb="3">
-      <t>ドウグラン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>今持つ道具を表示する。クリックなどができない。</t>
-    <rPh sb="0" eb="1">
-      <t>イマ</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>モ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ドウグ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>再開ボタン</t>
     <rPh sb="0" eb="2">
       <t>サイカイ</t>
@@ -432,28 +324,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>プレイヤーや道具欄などは背景の黒の下に置く。</t>
-    <rPh sb="6" eb="8">
-      <t>ドウグ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ラン</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ハイケイ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>クロ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>シタ</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>オ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ギミックの種類に応じ、ボタンの数が変わる。（右サンプルを参考）</t>
     <rPh sb="5" eb="7">
       <t>シュルイ</t>
@@ -496,19 +366,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>各エンドは対応のビデオを流します</t>
-    <rPh sb="0" eb="1">
-      <t>カク</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>タイオウ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>ナガ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>タイトルに戻すためにメニューを設定しました。</t>
     <rPh sb="5" eb="6">
       <t>モド</t>
@@ -519,54 +376,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ビデオが終了後、自動的にタイトル画面に移行する。</t>
-    <rPh sb="4" eb="7">
-      <t>シュウリョウゴ</t>
-    </rPh>
-    <rPh sb="8" eb="11">
-      <t>ジドウテキ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>イコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ギミックをクリックした後、ゲームを一時停止し、背景の明度を下げ、メインメニューを表示する。</t>
-    <rPh sb="11" eb="12">
-      <t>アト</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>メイド</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>サ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>詳しい操作は「操作説明」に参照</t>
-    <rPh sb="0" eb="1">
-      <t>クワ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ソウサ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ソウサ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>セツメイ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>サンショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ギミックの使用方法及びギミックの背景を乗せる。</t>
     <rPh sb="5" eb="9">
       <t>シヨウホウホウ</t>
@@ -784,19 +593,190 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>13-2-4メインメニュー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>13-2-5ギミックメニュー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「13-１、画面遷移」の「チュートリアル」と「メインゲーム」の間に矢印を追加</t>
+    <rPh sb="31" eb="32">
+      <t>アイダ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ヤジルシ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステージ1をチュートリアルに改良するよてい</t>
+    <rPh sb="14" eb="16">
+      <t>カイリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マップ上に存在するギミック。</t>
+    <rPh sb="3" eb="4">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ソンザイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>（画面上に表示しない）</t>
+    <rPh sb="1" eb="3">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>13-2-3メインゲーム</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>13-2-4メインメニュー</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>13-2-5ギミックメニュー</t>
+    <t>「メインメニュー」を閉じ、ゲームを再開するボタン。</t>
+    <rPh sb="10" eb="11">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>サイカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「タイトル」シーンに移行するボタン</t>
+    <rPh sb="10" eb="12">
+      <t>イコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤーなどは背景の黒の下に置く。</t>
+    <rPh sb="8" eb="10">
+      <t>ハイケイ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>クロ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「13-2-3メインゲーム」の「道具欄」を削除</t>
+    <rPh sb="16" eb="18">
+      <t>ドウグ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ラン</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>操作関連説明の修正</t>
+    <rPh sb="0" eb="2">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カンレン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>セツメイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エンド詳細は「ENDING説明」を参考</t>
+    <rPh sb="3" eb="5">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>セツメイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>サンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1OA1bf8OTuH633jZBqPHCopBH9PAAV1wL</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>13-2-6リザルト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「13-2-6リザルト」の説明修正</t>
+    <rPh sb="13" eb="15">
+      <t>セツメイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スローモーションでギミックを操作するときの画面。</t>
+    <rPh sb="14" eb="16">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>詳しい操作は「操作仕様」を参照</t>
+    <rPh sb="0" eb="1">
+      <t>クワ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「13-2-5ギミックメニュー」配置更新</t>
+    <rPh sb="16" eb="18">
+      <t>ハイチ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>コウシン</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -804,7 +784,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -886,6 +866,15 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -1292,7 +1281,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1314,8 +1303,11 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1340,20 +1332,8 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="3" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="7">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1363,6 +1343,24 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="22" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1412,6 +1410,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1419,9 +1429,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
@@ -1442,20 +1449,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
@@ -1475,20 +1473,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="8">
     <cellStyle name="アクセント 3" xfId="3" builtinId="37"/>
     <cellStyle name="アクセント 5" xfId="4" builtinId="45"/>
     <cellStyle name="アクセント 6" xfId="1" builtinId="49"/>
-    <cellStyle name="どちらでもない 2" xfId="6" xr:uid="{54E17B61-BBB5-402B-9497-0B5AF663F34C}"/>
+    <cellStyle name="どちらでもない 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="ハイパーリンク" xfId="7" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 2" xfId="5" xr:uid="{AFD38BF6-EA58-430C-A8B6-1EC9677C3D7B}"/>
+    <cellStyle name="標準 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
     <cellStyle name="良い" xfId="2" builtinId="26"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1506,6 +1505,232 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>14344</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>63033</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>56</xdr:col>
+      <xdr:colOff>14351</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>56389</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="93" name="グループ化 92">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00005D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="7239897" y="23604351"/>
+          <a:ext cx="5827066" cy="3256509"/>
+          <a:chOff x="723899" y="10982325"/>
+          <a:chExt cx="5953126" cy="3317749"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="114" name="正方形/長方形 113">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000072000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="723899" y="10982325"/>
+            <a:ext cx="5953126" cy="3317749"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="115" name="楕円 114">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000073000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3152774" y="12258674"/>
+            <a:ext cx="923925" cy="904875"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="1"/>
+              <a:t>プレイヤー</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>134470</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>212911</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>59</xdr:col>
+      <xdr:colOff>22412</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>100853</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="69" name="図 68">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000045000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6723529" y="23106529"/>
+          <a:ext cx="7182971" cy="5065059"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>231737</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>11203</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>164193</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>224114</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="116" name="図 115">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000074000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10585972" y="25728703"/>
+          <a:ext cx="2285692" cy="918882"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
@@ -1879,172 +2104,28 @@
           </a:p>
         </xdr:txBody>
       </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="8" name="楕円 7">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="6547054" y="11981068"/>
-            <a:ext cx="438150" cy="465534"/>
-          </a:xfrm>
-          <a:prstGeom prst="ellipse">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent4">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent4"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent4"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800" b="1"/>
-              <a:t>道具欄</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="9" name="楕円 8">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000009000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="6508955" y="12333492"/>
-            <a:ext cx="438150" cy="465534"/>
-          </a:xfrm>
-          <a:prstGeom prst="ellipse">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent4">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent4"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent4"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800" b="1"/>
-              <a:t>具</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="10" name="楕円 9">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000A000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="6213679" y="12504943"/>
-            <a:ext cx="438150" cy="465534"/>
-          </a:xfrm>
-          <a:prstGeom prst="ellipse">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent4">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent4"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent4"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800" b="1"/>
-              <a:t>欄</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
     </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>102</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>200024</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>112356</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>9524</xdr:colOff>
-      <xdr:row>116</xdr:row>
-      <xdr:rowOff>94489</xdr:rowOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>210411</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>123063</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="139" name="グループ化 138">
+        <xdr:cNvPr id="137" name="グループ化 136">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10EFC870-DA80-49B6-A2B1-DE2F6098F006}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000089000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2052,1453 +2133,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="939949" y="23869650"/>
-          <a:ext cx="5828963" cy="3262392"/>
-          <a:chOff x="944880" y="25652730"/>
-          <a:chExt cx="5907404" cy="3199639"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:grpSp>
-        <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="20" name="グループ化 19">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000014000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvGrpSpPr/>
-        </xdr:nvGrpSpPr>
-        <xdr:grpSpPr>
-          <a:xfrm>
-            <a:off x="944880" y="25658445"/>
-            <a:ext cx="5905501" cy="3193924"/>
-            <a:chOff x="723899" y="10982325"/>
-            <a:chExt cx="5953126" cy="3317749"/>
-          </a:xfrm>
-        </xdr:grpSpPr>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="21" name="正方形/長方形 20">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000015000000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="723899" y="10982325"/>
-              <a:ext cx="5953126" cy="3317749"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="dk1"/>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="lt1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="dk1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="dk1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="22" name="楕円 21">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000016000000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="3152774" y="12258674"/>
-              <a:ext cx="923925" cy="904875"/>
-            </a:xfrm>
-            <a:prstGeom prst="ellipse">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:r>
-                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="1"/>
-                <a:t>プレイヤー</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="23" name="楕円 22">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000017000000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="6124575" y="13192126"/>
-              <a:ext cx="438150" cy="465534"/>
-            </a:xfrm>
-            <a:prstGeom prst="ellipse">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent4">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent4"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent4"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:r>
-                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800" b="1"/>
-                <a:t>道具欄</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="24" name="楕円 23">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000018000000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="6086475" y="13544551"/>
-              <a:ext cx="438150" cy="465534"/>
-            </a:xfrm>
-            <a:prstGeom prst="ellipse">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent4">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent4"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent4"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:r>
-                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800" b="1"/>
-                <a:t>具</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="25" name="楕円 24">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000019000000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="5791200" y="13716001"/>
-              <a:ext cx="438150" cy="465534"/>
-            </a:xfrm>
-            <a:prstGeom prst="ellipse">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent4">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent4"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent4"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:r>
-                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800" b="1"/>
-                <a:t>欄</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </xdr:grpSp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="26" name="正方形/長方形 25">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001A000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="954405" y="25652730"/>
-            <a:ext cx="5897879" cy="3181350"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="dk1">
-              <a:alpha val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="27" name="正方形/長方形 26">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001B000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="1154430" y="25829895"/>
-            <a:ext cx="2040255" cy="2828925"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800" b="1"/>
-              <a:t>説明枠</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="29" name="楕円 28">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001D000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="3762375" y="26058495"/>
-            <a:ext cx="2541270" cy="2457450"/>
-          </a:xfrm>
-          <a:prstGeom prst="ellipse">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="31" name="直線コネクタ 30">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001F000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvCxnSpPr>
-            <a:stCxn id="29" idx="1"/>
-            <a:endCxn id="29" idx="5"/>
-          </xdr:cNvCxnSpPr>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="4133794" y="26414674"/>
-            <a:ext cx="1796527" cy="1745092"/>
-          </a:xfrm>
-          <a:prstGeom prst="line">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln w="38100"/>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="1">
-            <a:schemeClr val="dk1"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:schemeClr val="dk1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="dk1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-      </xdr:cxnSp>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="32" name="直線コネクタ 31">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000020000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvCxnSpPr>
-            <a:stCxn id="29" idx="7"/>
-            <a:endCxn id="29" idx="3"/>
-          </xdr:cNvCxnSpPr>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm flipH="1">
-            <a:off x="4133794" y="26414674"/>
-            <a:ext cx="1796527" cy="1745092"/>
-          </a:xfrm>
-          <a:prstGeom prst="line">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln w="38100"/>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="1">
-            <a:schemeClr val="dk1"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:schemeClr val="dk1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="dk1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-      </xdr:cxnSp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="28" name="楕円 27">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001C000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="4215765" y="26553795"/>
-            <a:ext cx="1624965" cy="1476375"/>
-          </a:xfrm>
-          <a:prstGeom prst="ellipse">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent6">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent6"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent6"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800" b="0"/>
-              <a:t>ギミックモデル</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>45</xdr:col>
-      <xdr:colOff>119065</xdr:colOff>
-      <xdr:row>104</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>56</xdr:col>
-      <xdr:colOff>164781</xdr:colOff>
-      <xdr:row>115</xdr:row>
-      <xdr:rowOff>226695</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="54" name="グループ化 53">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000036000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="10607771" y="24392965"/>
-          <a:ext cx="2609622" cy="2638201"/>
-          <a:chOff x="11520490" y="26146125"/>
-          <a:chExt cx="2666996" cy="2686050"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="44" name="楕円 43">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002C000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="12296776" y="26146125"/>
-            <a:ext cx="1162050" cy="2686050"/>
-          </a:xfrm>
-          <a:prstGeom prst="ellipse">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent6">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent6"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent6"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800" b="0"/>
-              <a:t>ギミックモデル</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:grpSp>
-        <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="45" name="グループ化 44">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002D000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvGrpSpPr/>
-        </xdr:nvGrpSpPr>
-        <xdr:grpSpPr>
-          <a:xfrm rot="18000000">
-            <a:off x="11306178" y="26650948"/>
-            <a:ext cx="1390650" cy="962025"/>
-            <a:chOff x="11334750" y="26489024"/>
-            <a:chExt cx="1390650" cy="962025"/>
-          </a:xfrm>
-        </xdr:grpSpPr>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="46" name="フローチャート: 手作業 45">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002E000000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="11439525" y="26727149"/>
-              <a:ext cx="1190625" cy="238125"/>
-            </a:xfrm>
-            <a:prstGeom prst="flowChartManualOperation">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="47" name="弦 46">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002F000000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="11334750" y="26489024"/>
-              <a:ext cx="1390650" cy="962025"/>
-            </a:xfrm>
-            <a:prstGeom prst="chord">
-              <a:avLst>
-                <a:gd name="adj1" fmla="val 12026608"/>
-                <a:gd name="adj2" fmla="val 20405455"/>
-              </a:avLst>
-            </a:prstGeom>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </xdr:grpSp>
-      <xdr:grpSp>
-        <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="48" name="グループ化 47">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000030000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvGrpSpPr/>
-        </xdr:nvGrpSpPr>
-        <xdr:grpSpPr>
-          <a:xfrm rot="3600000">
-            <a:off x="13011149" y="26717624"/>
-            <a:ext cx="1390650" cy="962025"/>
-            <a:chOff x="11334750" y="26489024"/>
-            <a:chExt cx="1390650" cy="962025"/>
-          </a:xfrm>
-        </xdr:grpSpPr>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="49" name="フローチャート: 手作業 48">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000031000000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="11439525" y="26727149"/>
-              <a:ext cx="1190625" cy="238125"/>
-            </a:xfrm>
-            <a:prstGeom prst="flowChartManualOperation">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="50" name="弦 49">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000032000000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="11334750" y="26489024"/>
-              <a:ext cx="1390650" cy="962025"/>
-            </a:xfrm>
-            <a:prstGeom prst="chord">
-              <a:avLst>
-                <a:gd name="adj1" fmla="val 12026608"/>
-                <a:gd name="adj2" fmla="val 20280006"/>
-              </a:avLst>
-            </a:prstGeom>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </xdr:grpSp>
-      <xdr:grpSp>
-        <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="51" name="グループ化 50">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000033000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvGrpSpPr/>
-        </xdr:nvGrpSpPr>
-        <xdr:grpSpPr>
-          <a:xfrm rot="10800000">
-            <a:off x="12163428" y="27860624"/>
-            <a:ext cx="1390650" cy="962025"/>
-            <a:chOff x="11334750" y="26489024"/>
-            <a:chExt cx="1390650" cy="962025"/>
-          </a:xfrm>
-        </xdr:grpSpPr>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="52" name="フローチャート: 手作業 51">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000034000000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="11439525" y="26727149"/>
-              <a:ext cx="1190625" cy="238125"/>
-            </a:xfrm>
-            <a:prstGeom prst="flowChartManualOperation">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="53" name="弦 52">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000035000000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="11334750" y="26489024"/>
-              <a:ext cx="1390650" cy="962025"/>
-            </a:xfrm>
-            <a:prstGeom prst="chord">
-              <a:avLst>
-                <a:gd name="adj1" fmla="val 12026608"/>
-                <a:gd name="adj2" fmla="val 20405455"/>
-              </a:avLst>
-            </a:prstGeom>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </xdr:grpSp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>21910</xdr:colOff>
-      <xdr:row>104</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>42</xdr:col>
-      <xdr:colOff>153352</xdr:colOff>
-      <xdr:row>115</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="55" name="グループ化 54">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000037000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="7247463" y="24316765"/>
-          <a:ext cx="2695348" cy="2630581"/>
-          <a:chOff x="7548565" y="26108025"/>
-          <a:chExt cx="2752722" cy="2686050"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="37" name="楕円 36">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000025000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="8362951" y="26108025"/>
-            <a:ext cx="1162050" cy="2686050"/>
-          </a:xfrm>
-          <a:prstGeom prst="ellipse">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent6">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent6"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent6"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800" b="0"/>
-              <a:t>ギミックモデル</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:grpSp>
-        <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="40" name="グループ化 39">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000028000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvGrpSpPr/>
-        </xdr:nvGrpSpPr>
-        <xdr:grpSpPr>
-          <a:xfrm rot="16200000">
-            <a:off x="7334253" y="26974799"/>
-            <a:ext cx="1390650" cy="962025"/>
-            <a:chOff x="11344275" y="26308049"/>
-            <a:chExt cx="1390650" cy="962025"/>
-          </a:xfrm>
-        </xdr:grpSpPr>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="38" name="フローチャート: 手作業 37">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000026000000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="11449050" y="26546175"/>
-              <a:ext cx="1190625" cy="238125"/>
-            </a:xfrm>
-            <a:prstGeom prst="flowChartManualOperation">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="39" name="弦 38">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000027000000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="11344275" y="26308049"/>
-              <a:ext cx="1390650" cy="962025"/>
-            </a:xfrm>
-            <a:prstGeom prst="chord">
-              <a:avLst>
-                <a:gd name="adj1" fmla="val 12026608"/>
-                <a:gd name="adj2" fmla="val 20405455"/>
-              </a:avLst>
-            </a:prstGeom>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </xdr:grpSp>
-      <xdr:grpSp>
-        <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="41" name="グループ化 40">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000029000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvGrpSpPr/>
-        </xdr:nvGrpSpPr>
-        <xdr:grpSpPr>
-          <a:xfrm rot="5400000">
-            <a:off x="9124950" y="27003376"/>
-            <a:ext cx="1390650" cy="962025"/>
-            <a:chOff x="11334750" y="26365199"/>
-            <a:chExt cx="1390650" cy="962025"/>
-          </a:xfrm>
-        </xdr:grpSpPr>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="42" name="フローチャート: 手作業 41">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002A000000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="11439526" y="26603324"/>
-              <a:ext cx="1190625" cy="238125"/>
-            </a:xfrm>
-            <a:prstGeom prst="flowChartManualOperation">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="43" name="弦 42">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002B000000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="11334750" y="26365199"/>
-              <a:ext cx="1390650" cy="962025"/>
-            </a:xfrm>
-            <a:prstGeom prst="chord">
-              <a:avLst>
-                <a:gd name="adj1" fmla="val 12026608"/>
-                <a:gd name="adj2" fmla="val 20280006"/>
-              </a:avLst>
-            </a:prstGeom>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </xdr:grpSp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>205740</xdr:colOff>
-      <xdr:row>102</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>41</xdr:col>
-      <xdr:colOff>100965</xdr:colOff>
-      <xdr:row>104</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="56" name="正方形/長方形 55">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000038000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7528560" y="23391495"/>
-          <a:ext cx="2257425" cy="438150"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
-            <a:t>サンプル：２ボタン</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>45</xdr:col>
-      <xdr:colOff>179070</xdr:colOff>
-      <xdr:row>102</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>55</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>104</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="57" name="正方形/長方形 56">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000039000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10808970" y="23391495"/>
-          <a:ext cx="2259330" cy="438150"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
-            <a:t>サンプル：３ボタン</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>200024</xdr:colOff>
-      <xdr:row>79</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>198120</xdr:colOff>
-      <xdr:row>93</xdr:row>
-      <xdr:rowOff>123064</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="137" name="グループ化 136">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{868C1760-9984-4E1A-924F-6BB6FDE721DF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="1365436" y="18543046"/>
-          <a:ext cx="5825155" cy="3256677"/>
-          <a:chOff x="946784" y="20147280"/>
-          <a:chExt cx="5903596" cy="3193924"/>
+          <a:off x="1365436" y="18292780"/>
+          <a:ext cx="5837446" cy="3273859"/>
+          <a:chOff x="946784" y="20130428"/>
+          <a:chExt cx="5916052" cy="3210776"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
@@ -3597,150 +2235,6 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="12" name="楕円 11">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000C000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="6284594" y="22242780"/>
-            <a:ext cx="434340" cy="446484"/>
-          </a:xfrm>
-          <a:prstGeom prst="ellipse">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent4">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent4"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent4"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800" b="1"/>
-              <a:t>道具欄</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="13" name="楕円 12">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000D000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="6246494" y="22585680"/>
-            <a:ext cx="434340" cy="446484"/>
-          </a:xfrm>
-          <a:prstGeom prst="ellipse">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent4">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent4"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent4"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800" b="1"/>
-              <a:t>具</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="14" name="楕円 13">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000E000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="5953124" y="22747605"/>
-            <a:ext cx="434340" cy="446484"/>
-          </a:xfrm>
-          <a:prstGeom prst="ellipse">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent4">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent4"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent4"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800" b="1"/>
-              <a:t>欄</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
           <xdr:cNvPr id="15" name="正方形/長方形 14">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
@@ -3752,7 +2246,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="946785" y="20156805"/>
+            <a:off x="964957" y="20130428"/>
             <a:ext cx="5897879" cy="3181350"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
@@ -3893,23 +2387,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>91440</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
+      <xdr:rowOff>118334</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
+      <xdr:col>22</xdr:col>
       <xdr:colOff>68579</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
+      <xdr:rowOff>34514</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="97" name="角丸四角形 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50A88F6B-3ADB-4012-8268-AB53C7F9EB7C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000061000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3917,8 +2411,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3398520" y="1043940"/>
-          <a:ext cx="1394459" cy="601980"/>
+          <a:off x="3856616" y="1059628"/>
+          <a:ext cx="1389081" cy="622151"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -3983,22 +2477,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>30481</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>179070</xdr:rowOff>
+      <xdr:rowOff>145452</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>220981</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>232187</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>216945</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="98" name="角丸四角形 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71D90FD3-AF2E-4F7A-B533-BBFBDCF62CF7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000062000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4006,8 +2500,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="502921" y="2236470"/>
-          <a:ext cx="2080260" cy="521970"/>
+          <a:off x="470647" y="2263364"/>
+          <a:ext cx="2585422" cy="542140"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -4064,6 +2558,23 @@
             </a:rPr>
             <a:t>チュートリアル</a:t>
           </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="1" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+              <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>(1-1)</a:t>
+          </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400" b="1" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
             <a:ln>
               <a:noFill/>
@@ -4085,23 +2596,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>43815</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>128781</xdr:rowOff>
+      <xdr:rowOff>117575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>129540</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>20955</xdr:rowOff>
+      <xdr:rowOff>9749</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="99" name="角丸四角形 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2B73E9C-4CA3-4595-B315-D405847D0B28}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000063000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4109,8 +2620,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3114675" y="2186181"/>
-          <a:ext cx="1975485" cy="577974"/>
+          <a:off x="3573668" y="2235487"/>
+          <a:ext cx="1968313" cy="598144"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -4174,23 +2685,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>91441</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>53340</xdr:rowOff>
+      <xdr:rowOff>42134</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
+      <xdr:col>22</xdr:col>
       <xdr:colOff>68581</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>220980</xdr:rowOff>
+      <xdr:rowOff>209774</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="100" name="角丸四角形 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B1E21E5-DFC2-46AD-A0B5-6C33AD739D4D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000064000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4198,8 +2709,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3398521" y="4168140"/>
-          <a:ext cx="1394460" cy="396240"/>
+          <a:off x="3856617" y="4277958"/>
+          <a:ext cx="1389082" cy="402963"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -4263,23 +2774,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
+      <xdr:col>22</xdr:col>
       <xdr:colOff>125731</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
+      <xdr:rowOff>4034</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
+      <xdr:col>31</xdr:col>
       <xdr:colOff>114301</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
+      <xdr:rowOff>11654</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="101" name="対角する 2 つの角を切り取った四角形 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C194E8D1-8317-4884-B6A6-207CC3FA6333}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000065000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4287,8 +2798,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4850131" y="2987040"/>
-          <a:ext cx="2114550" cy="464820"/>
+          <a:off x="5302849" y="3063240"/>
+          <a:ext cx="2106481" cy="478267"/>
         </a:xfrm>
         <a:prstGeom prst="snip2DiagRect">
           <a:avLst>
@@ -4355,23 +2866,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
+      <xdr:col>22</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>217171</xdr:rowOff>
+      <xdr:rowOff>205965</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
+      <xdr:col>32</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>224119</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="102" name="対角する 2 つの角を切り取った四角形 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00BCA902-6B7C-44F8-9DAB-87FC864E630F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000066000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4379,8 +2890,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4886325" y="3646171"/>
-          <a:ext cx="2352675" cy="468630"/>
+          <a:off x="5339043" y="3735818"/>
+          <a:ext cx="2343710" cy="488801"/>
         </a:xfrm>
         <a:prstGeom prst="snip2DiagRect">
           <a:avLst>
@@ -4447,23 +2958,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>80010</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
+      <xdr:rowOff>34514</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>86678</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>128781</xdr:rowOff>
+      <xdr:rowOff>117575</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="103" name="直線矢印コネクタ 102">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8209F2E-5E47-47A4-A309-A8540AA94A94}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000067000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4474,8 +2985,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4095750" y="1645920"/>
-          <a:ext cx="6668" cy="540261"/>
+          <a:off x="4551157" y="1681779"/>
+          <a:ext cx="6668" cy="553708"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4496,23 +3007,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>125732</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>116093</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
+      <xdr:rowOff>12102</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>68581</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>79787</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>179070</xdr:rowOff>
+      <xdr:rowOff>145452</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="104" name="カギ線コネクタ 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{593C69A7-2778-44A7-90C4-AE8D12D23BC0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000068000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4522,8 +3033,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000" flipV="1">
-          <a:off x="1543052" y="1874520"/>
-          <a:ext cx="2541269" cy="361950"/>
+          <a:off x="1763358" y="1894690"/>
+          <a:ext cx="2787576" cy="368674"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -4560,7 +3071,7 @@
         <xdr:cNvPr id="105" name="角丸四角形 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0504AE73-C005-4792-A993-EAA5913FED7B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000069000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4649,7 +3160,7 @@
         <xdr:cNvPr id="106" name="対角する 2 つの角を切り取った四角形 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D9BBB43-A98F-4594-B25C-82B14A9D053B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00006A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4725,23 +3236,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>80011</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>20955</xdr:rowOff>
+      <xdr:rowOff>9749</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>86678</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>53340</xdr:rowOff>
+      <xdr:rowOff>42134</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="107" name="直線矢印コネクタ 106">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74F3151E-3EB8-4DE2-8A19-65CD8E60C568}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00006B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4752,8 +3263,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="4095751" y="2764155"/>
-          <a:ext cx="6667" cy="1403985"/>
+          <a:off x="4551158" y="2833631"/>
+          <a:ext cx="6667" cy="1444327"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4774,23 +3285,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>217169</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
+      <xdr:rowOff>4034</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
+      <xdr:col>22</xdr:col>
       <xdr:colOff>125731</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>7844</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="108" name="カギ線コネクタ 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BFAA46DF-B909-4B32-8CE2-A46C03524736}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00006C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4800,8 +3311,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="4429125" y="2798444"/>
-          <a:ext cx="461010" cy="381002"/>
+          <a:off x="4876016" y="2875540"/>
+          <a:ext cx="474457" cy="379209"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -4822,23 +3333,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>220984</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>205742</xdr:rowOff>
+      <xdr:rowOff>194536</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
+      <xdr:col>22</xdr:col>
       <xdr:colOff>161926</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>222885</xdr:rowOff>
+      <xdr:rowOff>211679</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="109" name="カギ線コネクタ 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95C80744-B1CB-4143-9496-DA88653CC188}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00006D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4848,8 +3359,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="4328163" y="3322323"/>
-          <a:ext cx="702943" cy="413382"/>
+          <a:off x="4771693" y="3409504"/>
+          <a:ext cx="723113" cy="411589"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -4868,6 +3379,919 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>232187</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>181199</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>43815</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>181324</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="68" name="直線矢印コネクタ 67">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000044000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="98" idx="3"/>
+          <a:endCxn id="99" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3056069" y="2534434"/>
+          <a:ext cx="517599" cy="125"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>156882</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>128306</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>145676</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>145677</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="77" name="楕円 76">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00004D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5334000" y="13328835"/>
+          <a:ext cx="1165411" cy="488018"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="1"/>
+            <a:t>ギミック</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>197224</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>67794</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>186017</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>85165</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="78" name="楕円 77">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00004E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2079812" y="13268323"/>
+          <a:ext cx="1165411" cy="488018"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="1"/>
+            <a:t>ギミック</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>201705</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>66928</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>94489</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="67" name="グループ化 66">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000043000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="939949" y="23509940"/>
+          <a:ext cx="6119450" cy="3389020"/>
+          <a:chOff x="948914" y="23801293"/>
+          <a:chExt cx="6177720" cy="3422637"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="20" name="グループ化 19">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000014000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="948914" y="23936045"/>
+            <a:ext cx="5883096" cy="3287885"/>
+            <a:chOff x="723899" y="10982325"/>
+            <a:chExt cx="5953126" cy="3317749"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="21" name="正方形/長方形 20">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000015000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="723899" y="10982325"/>
+              <a:ext cx="5953126" cy="3317749"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="dk1"/>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="lt1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="dk1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="22" name="楕円 21">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000016000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3152774" y="12258674"/>
+              <a:ext cx="923925" cy="904875"/>
+            </a:xfrm>
+            <a:prstGeom prst="ellipse">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="1"/>
+                <a:t>プレイヤー</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="79" name="楕円 78">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00004F000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1647264" y="24608117"/>
+            <a:ext cx="1165411" cy="488018"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:effectLst>
+            <a:glow rad="228600">
+              <a:schemeClr val="accent4">
+                <a:satMod val="175000"/>
+                <a:alpha val="40000"/>
+              </a:schemeClr>
+            </a:glow>
+          </a:effectLst>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent6">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent6"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="1"/>
+              <a:t>ギミック</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="82" name="楕円 81">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000052000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5363136" y="25085486"/>
+            <a:ext cx="1165411" cy="488018"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:effectLst>
+            <a:glow rad="228600">
+              <a:schemeClr val="accent6">
+                <a:satMod val="175000"/>
+                <a:alpha val="40000"/>
+              </a:schemeClr>
+            </a:glow>
+          </a:effectLst>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent6">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent6"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="1"/>
+              <a:t>ギミック</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="63" name="図 62">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00003F000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6006354" y="25527000"/>
+            <a:ext cx="504265" cy="507180"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="66" name="図 65">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000042000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4840942" y="23801293"/>
+            <a:ext cx="2285692" cy="918882"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="65" name="図 64">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000041000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5266764" y="24059030"/>
+            <a:ext cx="386603" cy="386603"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="87" name="図 86">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000057000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4825253" y="24267458"/>
+            <a:ext cx="2285692" cy="918882"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="64" name="図 63">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000040000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5277970" y="24529677"/>
+            <a:ext cx="386603" cy="386603"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>186912</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>33616</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>102868</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>184896</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="117" name="図 116">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000075000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11011794" y="25986440"/>
+          <a:ext cx="386603" cy="386603"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>56031</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>56030</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2319618" cy="1894429"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="70" name="テキスト ボックス 69">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000046000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8057031" y="24596912"/>
+          <a:ext cx="2319618" cy="1894429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1200" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>説明部分説明部分説明部分説明部分説明部分説明部分説明部分説明部分説明部分説明部分説明部分説明部分説明部分説明部分説明部分説明部分説明部分説明部分説明部分説明部分説明部分説明部分説明部分説明部分</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1200" b="1">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>73959</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>62753</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2548326" cy="435697"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="118" name="テキスト ボックス 117">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000076000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9016253" y="23897665"/>
+          <a:ext cx="2548326" cy="435697"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1"/>
+            <a:t>Y</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1"/>
+            <a:t>ボタンで説明を見る画面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>163607</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>62754</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1853451" cy="1122102"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="119" name="テキスト ボックス 118">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000077000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10753166" y="24603636"/>
+          <a:ext cx="1853451" cy="1122102"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1200" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>説明部分</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>画像部分</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1200" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>説明部分画像部分説明部分画像部分説明部分画像部分説明部分画像部分</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -5133,30 +4557,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63C93823-DD1D-4D8A-A49B-232673BE4939}">
-  <dimension ref="A1:BQ5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:BQ10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5:AZ5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.19921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:69" x14ac:dyDescent="0.45">
-      <c r="A1" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
+      <c r="A1" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
@@ -5216,18 +4640,18 @@
       <c r="BQ1" s="1"/>
     </row>
     <row r="2" spans="1:69" x14ac:dyDescent="0.45">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
+      <c r="A2" s="17"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
@@ -5288,154 +4712,494 @@
     </row>
     <row r="3" spans="1:69" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="4" spans="1:69" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C4" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11"/>
-      <c r="N4" s="11"/>
-      <c r="O4" s="11"/>
-      <c r="P4" s="11"/>
-      <c r="Q4" s="11"/>
-      <c r="R4" s="11"/>
-      <c r="S4" s="11"/>
-      <c r="T4" s="11"/>
-      <c r="U4" s="11"/>
-      <c r="V4" s="11"/>
-      <c r="W4" s="11"/>
-      <c r="X4" s="11"/>
-      <c r="Y4" s="11"/>
-      <c r="Z4" s="11"/>
-      <c r="AA4" s="11"/>
-      <c r="AB4" s="11"/>
-      <c r="AC4" s="11"/>
-      <c r="AD4" s="11"/>
-      <c r="AE4" s="11"/>
-      <c r="AF4" s="11"/>
-      <c r="AG4" s="11"/>
-      <c r="AH4" s="11"/>
-      <c r="AI4" s="11"/>
-      <c r="AJ4" s="11"/>
-      <c r="AK4" s="11"/>
-      <c r="AL4" s="11"/>
-      <c r="AM4" s="11"/>
-      <c r="AN4" s="11"/>
-      <c r="AO4" s="11"/>
-      <c r="AP4" s="11"/>
-      <c r="AQ4" s="11"/>
-      <c r="AR4" s="11"/>
-      <c r="AS4" s="11"/>
-      <c r="AT4" s="11"/>
-      <c r="AU4" s="11"/>
-      <c r="AV4" s="11"/>
-      <c r="AW4" s="11"/>
-      <c r="AX4" s="11"/>
-      <c r="AY4" s="11"/>
-      <c r="AZ4" s="12"/>
-      <c r="BA4" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="BB4" s="11"/>
-      <c r="BC4" s="11"/>
-      <c r="BD4" s="11"/>
-      <c r="BE4" s="11"/>
-      <c r="BF4" s="11"/>
-      <c r="BG4" s="12"/>
+      <c r="C4" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="13"/>
+      <c r="O4" s="13"/>
+      <c r="P4" s="13"/>
+      <c r="Q4" s="13"/>
+      <c r="R4" s="13"/>
+      <c r="S4" s="13"/>
+      <c r="T4" s="13"/>
+      <c r="U4" s="13"/>
+      <c r="V4" s="13"/>
+      <c r="W4" s="13"/>
+      <c r="X4" s="13"/>
+      <c r="Y4" s="13"/>
+      <c r="Z4" s="13"/>
+      <c r="AA4" s="13"/>
+      <c r="AB4" s="13"/>
+      <c r="AC4" s="13"/>
+      <c r="AD4" s="13"/>
+      <c r="AE4" s="13"/>
+      <c r="AF4" s="13"/>
+      <c r="AG4" s="13"/>
+      <c r="AH4" s="13"/>
+      <c r="AI4" s="13"/>
+      <c r="AJ4" s="13"/>
+      <c r="AK4" s="13"/>
+      <c r="AL4" s="13"/>
+      <c r="AM4" s="13"/>
+      <c r="AN4" s="13"/>
+      <c r="AO4" s="13"/>
+      <c r="AP4" s="13"/>
+      <c r="AQ4" s="13"/>
+      <c r="AR4" s="13"/>
+      <c r="AS4" s="13"/>
+      <c r="AT4" s="13"/>
+      <c r="AU4" s="13"/>
+      <c r="AV4" s="13"/>
+      <c r="AW4" s="13"/>
+      <c r="AX4" s="13"/>
+      <c r="AY4" s="13"/>
+      <c r="AZ4" s="14"/>
+      <c r="BA4" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="BB4" s="13"/>
+      <c r="BC4" s="13"/>
+      <c r="BD4" s="13"/>
+      <c r="BE4" s="13"/>
+      <c r="BF4" s="13"/>
+      <c r="BG4" s="14"/>
     </row>
     <row r="5" spans="1:69" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="14"/>
-      <c r="N5" s="14"/>
-      <c r="O5" s="14"/>
-      <c r="P5" s="14"/>
-      <c r="Q5" s="14"/>
-      <c r="R5" s="14"/>
-      <c r="S5" s="14"/>
-      <c r="T5" s="14"/>
-      <c r="U5" s="14"/>
-      <c r="V5" s="14"/>
-      <c r="W5" s="14"/>
-      <c r="X5" s="14"/>
-      <c r="Y5" s="14"/>
-      <c r="Z5" s="14"/>
-      <c r="AA5" s="14"/>
-      <c r="AB5" s="14"/>
-      <c r="AC5" s="14"/>
-      <c r="AD5" s="14"/>
-      <c r="AE5" s="14"/>
-      <c r="AF5" s="14"/>
-      <c r="AG5" s="14"/>
-      <c r="AH5" s="14"/>
-      <c r="AI5" s="14"/>
-      <c r="AJ5" s="14"/>
-      <c r="AK5" s="14"/>
-      <c r="AL5" s="14"/>
-      <c r="AM5" s="14"/>
-      <c r="AN5" s="14"/>
-      <c r="AO5" s="14"/>
-      <c r="AP5" s="14"/>
-      <c r="AQ5" s="14"/>
-      <c r="AR5" s="14"/>
-      <c r="AS5" s="14"/>
-      <c r="AT5" s="14"/>
-      <c r="AU5" s="14"/>
-      <c r="AV5" s="14"/>
-      <c r="AW5" s="14"/>
-      <c r="AX5" s="14"/>
-      <c r="AY5" s="14"/>
-      <c r="AZ5" s="15"/>
-      <c r="BA5" s="16">
+      <c r="C5" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="13"/>
+      <c r="O5" s="13"/>
+      <c r="P5" s="13"/>
+      <c r="Q5" s="13"/>
+      <c r="R5" s="13"/>
+      <c r="S5" s="13"/>
+      <c r="T5" s="13"/>
+      <c r="U5" s="13"/>
+      <c r="V5" s="13"/>
+      <c r="W5" s="13"/>
+      <c r="X5" s="13"/>
+      <c r="Y5" s="13"/>
+      <c r="Z5" s="13"/>
+      <c r="AA5" s="13"/>
+      <c r="AB5" s="13"/>
+      <c r="AC5" s="13"/>
+      <c r="AD5" s="13"/>
+      <c r="AE5" s="13"/>
+      <c r="AF5" s="13"/>
+      <c r="AG5" s="13"/>
+      <c r="AH5" s="13"/>
+      <c r="AI5" s="13"/>
+      <c r="AJ5" s="13"/>
+      <c r="AK5" s="13"/>
+      <c r="AL5" s="13"/>
+      <c r="AM5" s="13"/>
+      <c r="AN5" s="13"/>
+      <c r="AO5" s="13"/>
+      <c r="AP5" s="13"/>
+      <c r="AQ5" s="13"/>
+      <c r="AR5" s="13"/>
+      <c r="AS5" s="13"/>
+      <c r="AT5" s="13"/>
+      <c r="AU5" s="13"/>
+      <c r="AV5" s="13"/>
+      <c r="AW5" s="13"/>
+      <c r="AX5" s="13"/>
+      <c r="AY5" s="13"/>
+      <c r="AZ5" s="14"/>
+      <c r="BA5" s="12">
+        <v>43668</v>
+      </c>
+      <c r="BB5" s="13"/>
+      <c r="BC5" s="13"/>
+      <c r="BD5" s="13"/>
+      <c r="BE5" s="13"/>
+      <c r="BF5" s="13"/>
+      <c r="BG5" s="14"/>
+    </row>
+    <row r="6" spans="1:69" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C6" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="13"/>
+      <c r="O6" s="13"/>
+      <c r="P6" s="13"/>
+      <c r="Q6" s="13"/>
+      <c r="R6" s="13"/>
+      <c r="S6" s="13"/>
+      <c r="T6" s="13"/>
+      <c r="U6" s="13"/>
+      <c r="V6" s="13"/>
+      <c r="W6" s="13"/>
+      <c r="X6" s="13"/>
+      <c r="Y6" s="13"/>
+      <c r="Z6" s="13"/>
+      <c r="AA6" s="13"/>
+      <c r="AB6" s="13"/>
+      <c r="AC6" s="13"/>
+      <c r="AD6" s="13"/>
+      <c r="AE6" s="13"/>
+      <c r="AF6" s="13"/>
+      <c r="AG6" s="13"/>
+      <c r="AH6" s="13"/>
+      <c r="AI6" s="13"/>
+      <c r="AJ6" s="13"/>
+      <c r="AK6" s="13"/>
+      <c r="AL6" s="13"/>
+      <c r="AM6" s="13"/>
+      <c r="AN6" s="13"/>
+      <c r="AO6" s="13"/>
+      <c r="AP6" s="13"/>
+      <c r="AQ6" s="13"/>
+      <c r="AR6" s="13"/>
+      <c r="AS6" s="13"/>
+      <c r="AT6" s="13"/>
+      <c r="AU6" s="13"/>
+      <c r="AV6" s="13"/>
+      <c r="AW6" s="13"/>
+      <c r="AX6" s="13"/>
+      <c r="AY6" s="13"/>
+      <c r="AZ6" s="14"/>
+      <c r="BA6" s="12">
+        <v>43668</v>
+      </c>
+      <c r="BB6" s="13"/>
+      <c r="BC6" s="13"/>
+      <c r="BD6" s="13"/>
+      <c r="BE6" s="13"/>
+      <c r="BF6" s="13"/>
+      <c r="BG6" s="14"/>
+    </row>
+    <row r="7" spans="1:69" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C7" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="13"/>
+      <c r="O7" s="13"/>
+      <c r="P7" s="13"/>
+      <c r="Q7" s="13"/>
+      <c r="R7" s="13"/>
+      <c r="S7" s="13"/>
+      <c r="T7" s="13"/>
+      <c r="U7" s="13"/>
+      <c r="V7" s="13"/>
+      <c r="W7" s="13"/>
+      <c r="X7" s="13"/>
+      <c r="Y7" s="13"/>
+      <c r="Z7" s="13"/>
+      <c r="AA7" s="13"/>
+      <c r="AB7" s="13"/>
+      <c r="AC7" s="13"/>
+      <c r="AD7" s="13"/>
+      <c r="AE7" s="13"/>
+      <c r="AF7" s="13"/>
+      <c r="AG7" s="13"/>
+      <c r="AH7" s="13"/>
+      <c r="AI7" s="13"/>
+      <c r="AJ7" s="13"/>
+      <c r="AK7" s="13"/>
+      <c r="AL7" s="13"/>
+      <c r="AM7" s="13"/>
+      <c r="AN7" s="13"/>
+      <c r="AO7" s="13"/>
+      <c r="AP7" s="13"/>
+      <c r="AQ7" s="13"/>
+      <c r="AR7" s="13"/>
+      <c r="AS7" s="13"/>
+      <c r="AT7" s="13"/>
+      <c r="AU7" s="13"/>
+      <c r="AV7" s="13"/>
+      <c r="AW7" s="13"/>
+      <c r="AX7" s="13"/>
+      <c r="AY7" s="13"/>
+      <c r="AZ7" s="14"/>
+      <c r="BA7" s="12">
+        <v>43668</v>
+      </c>
+      <c r="BB7" s="13"/>
+      <c r="BC7" s="13"/>
+      <c r="BD7" s="13"/>
+      <c r="BE7" s="13"/>
+      <c r="BF7" s="13"/>
+      <c r="BG7" s="14"/>
+    </row>
+    <row r="8" spans="1:69" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C8" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="13"/>
+      <c r="O8" s="13"/>
+      <c r="P8" s="13"/>
+      <c r="Q8" s="13"/>
+      <c r="R8" s="13"/>
+      <c r="S8" s="13"/>
+      <c r="T8" s="13"/>
+      <c r="U8" s="13"/>
+      <c r="V8" s="13"/>
+      <c r="W8" s="13"/>
+      <c r="X8" s="13"/>
+      <c r="Y8" s="13"/>
+      <c r="Z8" s="13"/>
+      <c r="AA8" s="13"/>
+      <c r="AB8" s="13"/>
+      <c r="AC8" s="13"/>
+      <c r="AD8" s="13"/>
+      <c r="AE8" s="13"/>
+      <c r="AF8" s="13"/>
+      <c r="AG8" s="13"/>
+      <c r="AH8" s="13"/>
+      <c r="AI8" s="13"/>
+      <c r="AJ8" s="13"/>
+      <c r="AK8" s="13"/>
+      <c r="AL8" s="13"/>
+      <c r="AM8" s="13"/>
+      <c r="AN8" s="13"/>
+      <c r="AO8" s="13"/>
+      <c r="AP8" s="13"/>
+      <c r="AQ8" s="13"/>
+      <c r="AR8" s="13"/>
+      <c r="AS8" s="13"/>
+      <c r="AT8" s="13"/>
+      <c r="AU8" s="13"/>
+      <c r="AV8" s="13"/>
+      <c r="AW8" s="13"/>
+      <c r="AX8" s="13"/>
+      <c r="AY8" s="13"/>
+      <c r="AZ8" s="14"/>
+      <c r="BA8" s="12">
+        <v>43668</v>
+      </c>
+      <c r="BB8" s="13"/>
+      <c r="BC8" s="13"/>
+      <c r="BD8" s="13"/>
+      <c r="BE8" s="13"/>
+      <c r="BF8" s="13"/>
+      <c r="BG8" s="14"/>
+    </row>
+    <row r="9" spans="1:69" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C9" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="13"/>
+      <c r="O9" s="13"/>
+      <c r="P9" s="13"/>
+      <c r="Q9" s="13"/>
+      <c r="R9" s="13"/>
+      <c r="S9" s="13"/>
+      <c r="T9" s="13"/>
+      <c r="U9" s="13"/>
+      <c r="V9" s="13"/>
+      <c r="W9" s="13"/>
+      <c r="X9" s="13"/>
+      <c r="Y9" s="13"/>
+      <c r="Z9" s="13"/>
+      <c r="AA9" s="13"/>
+      <c r="AB9" s="13"/>
+      <c r="AC9" s="13"/>
+      <c r="AD9" s="13"/>
+      <c r="AE9" s="13"/>
+      <c r="AF9" s="13"/>
+      <c r="AG9" s="13"/>
+      <c r="AH9" s="13"/>
+      <c r="AI9" s="13"/>
+      <c r="AJ9" s="13"/>
+      <c r="AK9" s="13"/>
+      <c r="AL9" s="13"/>
+      <c r="AM9" s="13"/>
+      <c r="AN9" s="13"/>
+      <c r="AO9" s="13"/>
+      <c r="AP9" s="13"/>
+      <c r="AQ9" s="13"/>
+      <c r="AR9" s="13"/>
+      <c r="AS9" s="13"/>
+      <c r="AT9" s="13"/>
+      <c r="AU9" s="13"/>
+      <c r="AV9" s="13"/>
+      <c r="AW9" s="13"/>
+      <c r="AX9" s="13"/>
+      <c r="AY9" s="13"/>
+      <c r="AZ9" s="14"/>
+      <c r="BA9" s="12">
+        <v>43668</v>
+      </c>
+      <c r="BB9" s="13"/>
+      <c r="BC9" s="13"/>
+      <c r="BD9" s="13"/>
+      <c r="BE9" s="13"/>
+      <c r="BF9" s="13"/>
+      <c r="BG9" s="14"/>
+    </row>
+    <row r="10" spans="1:69" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="10"/>
+      <c r="P10" s="10"/>
+      <c r="Q10" s="10"/>
+      <c r="R10" s="10"/>
+      <c r="S10" s="10"/>
+      <c r="T10" s="10"/>
+      <c r="U10" s="10"/>
+      <c r="V10" s="10"/>
+      <c r="W10" s="10"/>
+      <c r="X10" s="10"/>
+      <c r="Y10" s="10"/>
+      <c r="Z10" s="10"/>
+      <c r="AA10" s="10"/>
+      <c r="AB10" s="10"/>
+      <c r="AC10" s="10"/>
+      <c r="AD10" s="10"/>
+      <c r="AE10" s="10"/>
+      <c r="AF10" s="10"/>
+      <c r="AG10" s="10"/>
+      <c r="AH10" s="10"/>
+      <c r="AI10" s="10"/>
+      <c r="AJ10" s="10"/>
+      <c r="AK10" s="10"/>
+      <c r="AL10" s="10"/>
+      <c r="AM10" s="10"/>
+      <c r="AN10" s="10"/>
+      <c r="AO10" s="10"/>
+      <c r="AP10" s="10"/>
+      <c r="AQ10" s="10"/>
+      <c r="AR10" s="10"/>
+      <c r="AS10" s="10"/>
+      <c r="AT10" s="10"/>
+      <c r="AU10" s="10"/>
+      <c r="AV10" s="10"/>
+      <c r="AW10" s="10"/>
+      <c r="AX10" s="10"/>
+      <c r="AY10" s="10"/>
+      <c r="AZ10" s="11"/>
+      <c r="BA10" s="18">
         <v>43619</v>
       </c>
-      <c r="BB5" s="14"/>
-      <c r="BC5" s="14"/>
-      <c r="BD5" s="14"/>
-      <c r="BE5" s="14"/>
-      <c r="BF5" s="14"/>
-      <c r="BG5" s="15"/>
-      <c r="BH5" s="2"/>
-      <c r="BI5" s="2"/>
-      <c r="BJ5" s="2"/>
-      <c r="BK5" s="2"/>
-      <c r="BL5" s="2"/>
-      <c r="BM5" s="2"/>
-      <c r="BN5" s="2"/>
-      <c r="BO5" s="2"/>
-      <c r="BP5" s="2"/>
-      <c r="BQ5" s="2"/>
+      <c r="BB10" s="10"/>
+      <c r="BC10" s="10"/>
+      <c r="BD10" s="10"/>
+      <c r="BE10" s="10"/>
+      <c r="BF10" s="10"/>
+      <c r="BG10" s="11"/>
+      <c r="BH10" s="2"/>
+      <c r="BI10" s="2"/>
+      <c r="BJ10" s="2"/>
+      <c r="BK10" s="2"/>
+      <c r="BL10" s="2"/>
+      <c r="BM10" s="2"/>
+      <c r="BN10" s="2"/>
+      <c r="BO10" s="2"/>
+      <c r="BP10" s="2"/>
+      <c r="BQ10" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="22">
     <mergeCell ref="A1:L2"/>
     <mergeCell ref="C4:F4"/>
     <mergeCell ref="G4:AZ4"/>
     <mergeCell ref="BA4:BG4"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="G10:AZ10"/>
+    <mergeCell ref="BA10:BG10"/>
+    <mergeCell ref="G9:AZ9"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="G8:AZ8"/>
+    <mergeCell ref="BA9:BG9"/>
+    <mergeCell ref="G7:AZ7"/>
+    <mergeCell ref="G6:AZ6"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="C6:F6"/>
     <mergeCell ref="C5:F5"/>
+    <mergeCell ref="BA8:BG8"/>
+    <mergeCell ref="BA7:BG7"/>
+    <mergeCell ref="BA6:BG6"/>
     <mergeCell ref="G5:AZ5"/>
     <mergeCell ref="BA5:BG5"/>
   </mergeCells>
@@ -5446,27 +5210,27 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:BQ142"/>
+  <dimension ref="A1:BQ140"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E75" sqref="E75:BB75"/>
+    <sheetView tabSelected="1" topLeftCell="A57" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AM84" sqref="AM84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.09765625" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:69" x14ac:dyDescent="0.45">
-      <c r="A1" s="53" t="s">
-        <v>60</v>
-      </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
+      <c r="A1" s="47" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
       <c r="K1" s="3"/>
       <c r="L1" s="3"/>
       <c r="M1" s="3"/>
@@ -5528,16 +5292,16 @@
       <c r="BQ1" s="3"/>
     </row>
     <row r="2" spans="1:69" x14ac:dyDescent="0.45">
-      <c r="A2" s="54"/>
-      <c r="B2" s="54"/>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="54"/>
+      <c r="A2" s="48"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
@@ -5600,7 +5364,7 @@
     </row>
     <row r="4" spans="1:69" x14ac:dyDescent="0.45">
       <c r="C4" s="4" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
@@ -5656,7 +5420,7 @@
     </row>
     <row r="22" spans="3:54" x14ac:dyDescent="0.45">
       <c r="C22" s="4" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
@@ -5712,7 +5476,7 @@
     </row>
     <row r="24" spans="3:54" x14ac:dyDescent="0.45">
       <c r="E24" s="6" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
@@ -5766,104 +5530,104 @@
     </row>
     <row r="42" spans="5:54" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="43" spans="5:54" x14ac:dyDescent="0.45">
-      <c r="G43" s="43" t="s">
+      <c r="G43" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="H43" s="44"/>
-      <c r="I43" s="44"/>
-      <c r="J43" s="44"/>
-      <c r="K43" s="44"/>
-      <c r="L43" s="44"/>
-      <c r="M43" s="45"/>
-      <c r="N43" s="46" t="s">
+      <c r="H43" s="35"/>
+      <c r="I43" s="35"/>
+      <c r="J43" s="35"/>
+      <c r="K43" s="35"/>
+      <c r="L43" s="35"/>
+      <c r="M43" s="36"/>
+      <c r="N43" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="O43" s="44"/>
-      <c r="P43" s="44"/>
-      <c r="Q43" s="44"/>
-      <c r="R43" s="44"/>
-      <c r="S43" s="44"/>
-      <c r="T43" s="44"/>
-      <c r="U43" s="44"/>
-      <c r="V43" s="44"/>
-      <c r="W43" s="44"/>
-      <c r="X43" s="44"/>
-      <c r="Y43" s="44"/>
-      <c r="Z43" s="44"/>
-      <c r="AA43" s="44"/>
-      <c r="AB43" s="44"/>
-      <c r="AC43" s="44"/>
-      <c r="AD43" s="44"/>
-      <c r="AE43" s="44"/>
-      <c r="AF43" s="45"/>
+      <c r="O43" s="35"/>
+      <c r="P43" s="35"/>
+      <c r="Q43" s="35"/>
+      <c r="R43" s="35"/>
+      <c r="S43" s="35"/>
+      <c r="T43" s="35"/>
+      <c r="U43" s="35"/>
+      <c r="V43" s="35"/>
+      <c r="W43" s="35"/>
+      <c r="X43" s="35"/>
+      <c r="Y43" s="35"/>
+      <c r="Z43" s="35"/>
+      <c r="AA43" s="35"/>
+      <c r="AB43" s="35"/>
+      <c r="AC43" s="35"/>
+      <c r="AD43" s="35"/>
+      <c r="AE43" s="35"/>
+      <c r="AF43" s="36"/>
     </row>
     <row r="44" spans="5:54" x14ac:dyDescent="0.45">
-      <c r="G44" s="35" t="s">
+      <c r="G44" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="H44" s="30"/>
-      <c r="I44" s="30"/>
-      <c r="J44" s="30"/>
-      <c r="K44" s="30"/>
-      <c r="L44" s="30"/>
-      <c r="M44" s="31"/>
-      <c r="N44" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="O44" s="30"/>
-      <c r="P44" s="30"/>
-      <c r="Q44" s="30"/>
-      <c r="R44" s="30"/>
-      <c r="S44" s="30"/>
-      <c r="T44" s="30"/>
-      <c r="U44" s="30"/>
-      <c r="V44" s="30"/>
-      <c r="W44" s="30"/>
-      <c r="X44" s="30"/>
-      <c r="Y44" s="30"/>
-      <c r="Z44" s="30"/>
-      <c r="AA44" s="30"/>
-      <c r="AB44" s="30"/>
-      <c r="AC44" s="30"/>
-      <c r="AD44" s="30"/>
-      <c r="AE44" s="30"/>
-      <c r="AF44" s="31"/>
+      <c r="H44" s="32"/>
+      <c r="I44" s="32"/>
+      <c r="J44" s="32"/>
+      <c r="K44" s="32"/>
+      <c r="L44" s="32"/>
+      <c r="M44" s="33"/>
+      <c r="N44" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="O44" s="32"/>
+      <c r="P44" s="32"/>
+      <c r="Q44" s="32"/>
+      <c r="R44" s="32"/>
+      <c r="S44" s="32"/>
+      <c r="T44" s="32"/>
+      <c r="U44" s="32"/>
+      <c r="V44" s="32"/>
+      <c r="W44" s="32"/>
+      <c r="X44" s="32"/>
+      <c r="Y44" s="32"/>
+      <c r="Z44" s="32"/>
+      <c r="AA44" s="32"/>
+      <c r="AB44" s="32"/>
+      <c r="AC44" s="32"/>
+      <c r="AD44" s="32"/>
+      <c r="AE44" s="32"/>
+      <c r="AF44" s="33"/>
     </row>
     <row r="45" spans="5:54" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="G45" s="32" t="s">
+      <c r="G45" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="H45" s="33"/>
-      <c r="I45" s="33"/>
-      <c r="J45" s="33"/>
-      <c r="K45" s="33"/>
-      <c r="L45" s="33"/>
-      <c r="M45" s="34"/>
-      <c r="N45" s="42" t="s">
-        <v>17</v>
-      </c>
-      <c r="O45" s="33"/>
-      <c r="P45" s="33"/>
-      <c r="Q45" s="33"/>
-      <c r="R45" s="33"/>
-      <c r="S45" s="33"/>
-      <c r="T45" s="33"/>
-      <c r="U45" s="33"/>
-      <c r="V45" s="33"/>
-      <c r="W45" s="33"/>
-      <c r="X45" s="33"/>
-      <c r="Y45" s="33"/>
-      <c r="Z45" s="33"/>
-      <c r="AA45" s="33"/>
-      <c r="AB45" s="33"/>
-      <c r="AC45" s="33"/>
-      <c r="AD45" s="33"/>
-      <c r="AE45" s="33"/>
-      <c r="AF45" s="34"/>
+      <c r="H45" s="39"/>
+      <c r="I45" s="39"/>
+      <c r="J45" s="39"/>
+      <c r="K45" s="39"/>
+      <c r="L45" s="39"/>
+      <c r="M45" s="40"/>
+      <c r="N45" s="56" t="s">
+        <v>16</v>
+      </c>
+      <c r="O45" s="39"/>
+      <c r="P45" s="39"/>
+      <c r="Q45" s="39"/>
+      <c r="R45" s="39"/>
+      <c r="S45" s="39"/>
+      <c r="T45" s="39"/>
+      <c r="U45" s="39"/>
+      <c r="V45" s="39"/>
+      <c r="W45" s="39"/>
+      <c r="X45" s="39"/>
+      <c r="Y45" s="39"/>
+      <c r="Z45" s="39"/>
+      <c r="AA45" s="39"/>
+      <c r="AB45" s="39"/>
+      <c r="AC45" s="39"/>
+      <c r="AD45" s="39"/>
+      <c r="AE45" s="39"/>
+      <c r="AF45" s="40"/>
     </row>
     <row r="48" spans="5:54" x14ac:dyDescent="0.45">
       <c r="E48" s="6" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="F48" s="6"/>
       <c r="G48" s="6"/>
@@ -5917,12 +5681,12 @@
     </row>
     <row r="50" spans="5:54" x14ac:dyDescent="0.45">
       <c r="G50" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
     </row>
     <row r="52" spans="5:54" x14ac:dyDescent="0.45">
       <c r="E52" s="6" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F52" s="6"/>
       <c r="G52" s="6"/>
@@ -5976,930 +5740,891 @@
     </row>
     <row r="68" spans="5:54" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="69" spans="5:54" x14ac:dyDescent="0.45">
-      <c r="F69" s="43" t="s">
+      <c r="F69" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="G69" s="44"/>
-      <c r="H69" s="44"/>
-      <c r="I69" s="44"/>
-      <c r="J69" s="45"/>
-      <c r="K69" s="46" t="s">
+      <c r="G69" s="35"/>
+      <c r="H69" s="35"/>
+      <c r="I69" s="35"/>
+      <c r="J69" s="36"/>
+      <c r="K69" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="L69" s="44"/>
-      <c r="M69" s="44"/>
-      <c r="N69" s="44"/>
-      <c r="O69" s="44"/>
-      <c r="P69" s="44"/>
-      <c r="Q69" s="44"/>
-      <c r="R69" s="44"/>
-      <c r="S69" s="44"/>
-      <c r="T69" s="44"/>
-      <c r="U69" s="44"/>
-      <c r="V69" s="44"/>
-      <c r="W69" s="44"/>
-      <c r="X69" s="44"/>
-      <c r="Y69" s="44"/>
-      <c r="Z69" s="44"/>
-      <c r="AA69" s="44"/>
-      <c r="AB69" s="44"/>
-      <c r="AC69" s="44"/>
-      <c r="AD69" s="44"/>
-      <c r="AE69" s="44"/>
-      <c r="AF69" s="44"/>
-      <c r="AG69" s="44"/>
-      <c r="AH69" s="44"/>
-      <c r="AI69" s="44"/>
-      <c r="AJ69" s="45"/>
+      <c r="L69" s="35"/>
+      <c r="M69" s="35"/>
+      <c r="N69" s="35"/>
+      <c r="O69" s="35"/>
+      <c r="P69" s="35"/>
+      <c r="Q69" s="35"/>
+      <c r="R69" s="35"/>
+      <c r="S69" s="35"/>
+      <c r="T69" s="35"/>
+      <c r="U69" s="35"/>
+      <c r="V69" s="35"/>
+      <c r="W69" s="35"/>
+      <c r="X69" s="35"/>
+      <c r="Y69" s="35"/>
+      <c r="Z69" s="35"/>
+      <c r="AA69" s="35"/>
+      <c r="AB69" s="35"/>
+      <c r="AC69" s="35"/>
+      <c r="AD69" s="35"/>
+      <c r="AE69" s="35"/>
+      <c r="AF69" s="35"/>
+      <c r="AG69" s="35"/>
+      <c r="AH69" s="35"/>
+      <c r="AI69" s="35"/>
+      <c r="AJ69" s="36"/>
     </row>
     <row r="70" spans="5:54" x14ac:dyDescent="0.45">
-      <c r="F70" s="35" t="s">
+      <c r="F70" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="G70" s="30"/>
-      <c r="H70" s="30"/>
-      <c r="I70" s="30"/>
-      <c r="J70" s="31"/>
-      <c r="K70" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="L70" s="30"/>
-      <c r="M70" s="30"/>
-      <c r="N70" s="30"/>
-      <c r="O70" s="30"/>
-      <c r="P70" s="30"/>
-      <c r="Q70" s="30"/>
-      <c r="R70" s="30"/>
-      <c r="S70" s="30"/>
-      <c r="T70" s="30"/>
-      <c r="U70" s="30"/>
-      <c r="V70" s="30"/>
-      <c r="W70" s="30"/>
-      <c r="X70" s="30"/>
-      <c r="Y70" s="30"/>
-      <c r="Z70" s="30"/>
-      <c r="AA70" s="30"/>
-      <c r="AB70" s="30"/>
-      <c r="AC70" s="30"/>
-      <c r="AD70" s="30"/>
-      <c r="AE70" s="30"/>
-      <c r="AF70" s="30"/>
-      <c r="AG70" s="30"/>
-      <c r="AH70" s="30"/>
-      <c r="AI70" s="30"/>
-      <c r="AJ70" s="31"/>
+      <c r="G70" s="32"/>
+      <c r="H70" s="32"/>
+      <c r="I70" s="32"/>
+      <c r="J70" s="33"/>
+      <c r="K70" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="L70" s="32"/>
+      <c r="M70" s="32"/>
+      <c r="N70" s="32"/>
+      <c r="O70" s="32"/>
+      <c r="P70" s="32"/>
+      <c r="Q70" s="32"/>
+      <c r="R70" s="32"/>
+      <c r="S70" s="32"/>
+      <c r="T70" s="32"/>
+      <c r="U70" s="32"/>
+      <c r="V70" s="32"/>
+      <c r="W70" s="32"/>
+      <c r="X70" s="32"/>
+      <c r="Y70" s="32"/>
+      <c r="Z70" s="32"/>
+      <c r="AA70" s="32"/>
+      <c r="AB70" s="32"/>
+      <c r="AC70" s="32"/>
+      <c r="AD70" s="32"/>
+      <c r="AE70" s="32"/>
+      <c r="AF70" s="32"/>
+      <c r="AG70" s="32"/>
+      <c r="AH70" s="32"/>
+      <c r="AI70" s="32"/>
+      <c r="AJ70" s="33"/>
     </row>
-    <row r="71" spans="5:54" x14ac:dyDescent="0.45">
-      <c r="F71" s="35" t="s">
+    <row r="71" spans="5:54" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="F71" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="G71" s="39"/>
+      <c r="H71" s="39"/>
+      <c r="I71" s="39"/>
+      <c r="J71" s="40"/>
+      <c r="K71" s="56" t="s">
+        <v>57</v>
+      </c>
+      <c r="L71" s="39"/>
+      <c r="M71" s="39"/>
+      <c r="N71" s="39"/>
+      <c r="O71" s="39"/>
+      <c r="P71" s="39"/>
+      <c r="Q71" s="39"/>
+      <c r="R71" s="39"/>
+      <c r="S71" s="39"/>
+      <c r="T71" s="39"/>
+      <c r="U71" s="39"/>
+      <c r="V71" s="39"/>
+      <c r="W71" s="39"/>
+      <c r="X71" s="39"/>
+      <c r="Y71" s="39"/>
+      <c r="Z71" s="39"/>
+      <c r="AA71" s="39"/>
+      <c r="AB71" s="39"/>
+      <c r="AC71" s="39"/>
+      <c r="AD71" s="39"/>
+      <c r="AE71" s="39"/>
+      <c r="AF71" s="39"/>
+      <c r="AG71" s="39"/>
+      <c r="AH71" s="39"/>
+      <c r="AI71" s="39"/>
+      <c r="AJ71" s="40"/>
+    </row>
+    <row r="72" spans="5:54" x14ac:dyDescent="0.45">
+      <c r="K72" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="74" spans="5:54" x14ac:dyDescent="0.45">
+      <c r="E74" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F74" s="7"/>
+      <c r="G74" s="7"/>
+      <c r="H74" s="7"/>
+      <c r="I74" s="7"/>
+      <c r="J74" s="7"/>
+      <c r="K74" s="7"/>
+      <c r="L74" s="7"/>
+      <c r="M74" s="7"/>
+      <c r="N74" s="7"/>
+      <c r="O74" s="7"/>
+      <c r="P74" s="7"/>
+      <c r="Q74" s="7"/>
+      <c r="R74" s="7"/>
+      <c r="S74" s="7"/>
+      <c r="T74" s="7"/>
+      <c r="U74" s="7"/>
+      <c r="V74" s="7"/>
+      <c r="W74" s="7"/>
+      <c r="X74" s="7"/>
+      <c r="Y74" s="7"/>
+      <c r="Z74" s="7"/>
+      <c r="AA74" s="7"/>
+      <c r="AB74" s="7"/>
+      <c r="AC74" s="7"/>
+      <c r="AD74" s="7"/>
+      <c r="AE74" s="7"/>
+      <c r="AF74" s="7"/>
+      <c r="AG74" s="7"/>
+      <c r="AH74" s="7"/>
+      <c r="AI74" s="7"/>
+      <c r="AJ74" s="7"/>
+      <c r="AK74" s="7"/>
+      <c r="AL74" s="7"/>
+      <c r="AM74" s="7"/>
+      <c r="AN74" s="7"/>
+      <c r="AO74" s="7"/>
+      <c r="AP74" s="7"/>
+      <c r="AQ74" s="7"/>
+      <c r="AR74" s="7"/>
+      <c r="AS74" s="7"/>
+      <c r="AT74" s="7"/>
+      <c r="AU74" s="7"/>
+      <c r="AV74" s="7"/>
+      <c r="AW74" s="7"/>
+      <c r="AX74" s="7"/>
+      <c r="AY74" s="7"/>
+      <c r="AZ74" s="7"/>
+      <c r="BA74" s="7"/>
+      <c r="BB74" s="7"/>
+    </row>
+    <row r="76" spans="5:54" x14ac:dyDescent="0.45">
+      <c r="G76" t="s">
         <v>36</v>
       </c>
-      <c r="G71" s="30"/>
-      <c r="H71" s="30"/>
-      <c r="I71" s="30"/>
-      <c r="J71" s="31"/>
-      <c r="K71" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="L71" s="30"/>
-      <c r="M71" s="30"/>
-      <c r="N71" s="30"/>
-      <c r="O71" s="30"/>
-      <c r="P71" s="30"/>
-      <c r="Q71" s="30"/>
-      <c r="R71" s="30"/>
-      <c r="S71" s="30"/>
-      <c r="T71" s="30"/>
-      <c r="U71" s="30"/>
-      <c r="V71" s="30"/>
-      <c r="W71" s="30"/>
-      <c r="X71" s="30"/>
-      <c r="Y71" s="30"/>
-      <c r="Z71" s="30"/>
-      <c r="AA71" s="30"/>
-      <c r="AB71" s="30"/>
-      <c r="AC71" s="30"/>
-      <c r="AD71" s="30"/>
-      <c r="AE71" s="30"/>
-      <c r="AF71" s="30"/>
-      <c r="AG71" s="30"/>
-      <c r="AH71" s="30"/>
-      <c r="AI71" s="30"/>
-      <c r="AJ71" s="31"/>
-    </row>
-    <row r="72" spans="5:54" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="F72" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="G72" s="33"/>
-      <c r="H72" s="33"/>
-      <c r="I72" s="33"/>
-      <c r="J72" s="34"/>
-      <c r="K72" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="L72" s="33"/>
-      <c r="M72" s="33"/>
-      <c r="N72" s="33"/>
-      <c r="O72" s="33"/>
-      <c r="P72" s="33"/>
-      <c r="Q72" s="33"/>
-      <c r="R72" s="33"/>
-      <c r="S72" s="33"/>
-      <c r="T72" s="33"/>
-      <c r="U72" s="33"/>
-      <c r="V72" s="33"/>
-      <c r="W72" s="33"/>
-      <c r="X72" s="33"/>
-      <c r="Y72" s="33"/>
-      <c r="Z72" s="33"/>
-      <c r="AA72" s="33"/>
-      <c r="AB72" s="33"/>
-      <c r="AC72" s="33"/>
-      <c r="AD72" s="33"/>
-      <c r="AE72" s="33"/>
-      <c r="AF72" s="33"/>
-      <c r="AG72" s="33"/>
-      <c r="AH72" s="33"/>
-      <c r="AI72" s="33"/>
-      <c r="AJ72" s="34"/>
-    </row>
-    <row r="73" spans="5:54" x14ac:dyDescent="0.45">
-      <c r="K73" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="75" spans="5:54" x14ac:dyDescent="0.45">
-      <c r="E75" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="F75" s="7"/>
-      <c r="G75" s="7"/>
-      <c r="H75" s="7"/>
-      <c r="I75" s="7"/>
-      <c r="J75" s="7"/>
-      <c r="K75" s="7"/>
-      <c r="L75" s="7"/>
-      <c r="M75" s="7"/>
-      <c r="N75" s="7"/>
-      <c r="O75" s="7"/>
-      <c r="P75" s="7"/>
-      <c r="Q75" s="7"/>
-      <c r="R75" s="7"/>
-      <c r="S75" s="7"/>
-      <c r="T75" s="7"/>
-      <c r="U75" s="7"/>
-      <c r="V75" s="7"/>
-      <c r="W75" s="7"/>
-      <c r="X75" s="7"/>
-      <c r="Y75" s="7"/>
-      <c r="Z75" s="7"/>
-      <c r="AA75" s="7"/>
-      <c r="AB75" s="7"/>
-      <c r="AC75" s="7"/>
-      <c r="AD75" s="7"/>
-      <c r="AE75" s="7"/>
-      <c r="AF75" s="7"/>
-      <c r="AG75" s="7"/>
-      <c r="AH75" s="7"/>
-      <c r="AI75" s="7"/>
-      <c r="AJ75" s="7"/>
-      <c r="AK75" s="7"/>
-      <c r="AL75" s="7"/>
-      <c r="AM75" s="7"/>
-      <c r="AN75" s="7"/>
-      <c r="AO75" s="7"/>
-      <c r="AP75" s="7"/>
-      <c r="AQ75" s="7"/>
-      <c r="AR75" s="7"/>
-      <c r="AS75" s="7"/>
-      <c r="AT75" s="7"/>
-      <c r="AU75" s="7"/>
-      <c r="AV75" s="7"/>
-      <c r="AW75" s="7"/>
-      <c r="AX75" s="7"/>
-      <c r="AY75" s="7"/>
-      <c r="AZ75" s="7"/>
-      <c r="BA75" s="7"/>
-      <c r="BB75" s="7"/>
     </row>
     <row r="77" spans="5:54" x14ac:dyDescent="0.45">
       <c r="G77" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="78" spans="5:54" x14ac:dyDescent="0.45">
       <c r="G78" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
     </row>
-    <row r="79" spans="5:54" x14ac:dyDescent="0.45">
-      <c r="G79" t="s">
-        <v>40</v>
-      </c>
+    <row r="94" spans="7:30" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="95" spans="7:30" x14ac:dyDescent="0.45">
+      <c r="G95" s="49" t="s">
+        <v>31</v>
+      </c>
+      <c r="H95" s="50"/>
+      <c r="I95" s="50"/>
+      <c r="J95" s="50"/>
+      <c r="K95" s="51"/>
+      <c r="L95" s="50" t="s">
+        <v>60</v>
+      </c>
+      <c r="M95" s="50"/>
+      <c r="N95" s="50"/>
+      <c r="O95" s="50"/>
+      <c r="P95" s="50"/>
+      <c r="Q95" s="50"/>
+      <c r="R95" s="50"/>
+      <c r="S95" s="50"/>
+      <c r="T95" s="50"/>
+      <c r="U95" s="50"/>
+      <c r="V95" s="50"/>
+      <c r="W95" s="50"/>
+      <c r="X95" s="50"/>
+      <c r="Y95" s="50"/>
+      <c r="Z95" s="50"/>
+      <c r="AA95" s="50"/>
+      <c r="AB95" s="50"/>
+      <c r="AC95" s="50"/>
+      <c r="AD95" s="51"/>
     </row>
-    <row r="95" spans="7:30" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="96" spans="7:30" x14ac:dyDescent="0.45">
-      <c r="G96" s="47" t="s">
-        <v>38</v>
-      </c>
-      <c r="H96" s="48"/>
-      <c r="I96" s="48"/>
-      <c r="J96" s="48"/>
-      <c r="K96" s="49"/>
-      <c r="L96" s="48" t="s">
-        <v>19</v>
-      </c>
-      <c r="M96" s="48"/>
-      <c r="N96" s="48"/>
-      <c r="O96" s="48"/>
-      <c r="P96" s="48"/>
-      <c r="Q96" s="48"/>
-      <c r="R96" s="48"/>
-      <c r="S96" s="48"/>
-      <c r="T96" s="48"/>
-      <c r="U96" s="48"/>
-      <c r="V96" s="48"/>
-      <c r="W96" s="48"/>
-      <c r="X96" s="48"/>
-      <c r="Y96" s="48"/>
-      <c r="Z96" s="48"/>
-      <c r="AA96" s="48"/>
-      <c r="AB96" s="48"/>
-      <c r="AC96" s="48"/>
-      <c r="AD96" s="49"/>
+    <row r="96" spans="7:30" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="G96" s="52" t="s">
+        <v>32</v>
+      </c>
+      <c r="H96" s="53"/>
+      <c r="I96" s="53"/>
+      <c r="J96" s="53"/>
+      <c r="K96" s="54"/>
+      <c r="L96" s="53" t="s">
+        <v>61</v>
+      </c>
+      <c r="M96" s="53"/>
+      <c r="N96" s="53"/>
+      <c r="O96" s="53"/>
+      <c r="P96" s="53"/>
+      <c r="Q96" s="53"/>
+      <c r="R96" s="53"/>
+      <c r="S96" s="53"/>
+      <c r="T96" s="53"/>
+      <c r="U96" s="53"/>
+      <c r="V96" s="53"/>
+      <c r="W96" s="53"/>
+      <c r="X96" s="53"/>
+      <c r="Y96" s="53"/>
+      <c r="Z96" s="53"/>
+      <c r="AA96" s="53"/>
+      <c r="AB96" s="53"/>
+      <c r="AC96" s="53"/>
+      <c r="AD96" s="54"/>
     </row>
-    <row r="97" spans="5:54" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="G97" s="50" t="s">
-        <v>39</v>
-      </c>
-      <c r="H97" s="51"/>
-      <c r="I97" s="51"/>
-      <c r="J97" s="51"/>
-      <c r="K97" s="52"/>
-      <c r="L97" s="51" t="s">
-        <v>18</v>
-      </c>
-      <c r="M97" s="51"/>
-      <c r="N97" s="51"/>
-      <c r="O97" s="51"/>
-      <c r="P97" s="51"/>
-      <c r="Q97" s="51"/>
-      <c r="R97" s="51"/>
-      <c r="S97" s="51"/>
-      <c r="T97" s="51"/>
-      <c r="U97" s="51"/>
-      <c r="V97" s="51"/>
-      <c r="W97" s="51"/>
-      <c r="X97" s="51"/>
-      <c r="Y97" s="51"/>
-      <c r="Z97" s="51"/>
-      <c r="AA97" s="51"/>
-      <c r="AB97" s="51"/>
-      <c r="AC97" s="51"/>
-      <c r="AD97" s="52"/>
+    <row r="98" spans="5:54" x14ac:dyDescent="0.45">
+      <c r="E98" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F98" s="7"/>
+      <c r="G98" s="7"/>
+      <c r="H98" s="7"/>
+      <c r="I98" s="7"/>
+      <c r="J98" s="7"/>
+      <c r="K98" s="7"/>
+      <c r="L98" s="7"/>
+      <c r="M98" s="7"/>
+      <c r="N98" s="7"/>
+      <c r="O98" s="7"/>
+      <c r="P98" s="7"/>
+      <c r="Q98" s="7"/>
+      <c r="R98" s="7"/>
+      <c r="S98" s="7"/>
+      <c r="T98" s="7"/>
+      <c r="U98" s="7"/>
+      <c r="V98" s="7"/>
+      <c r="W98" s="7"/>
+      <c r="X98" s="7"/>
+      <c r="Y98" s="7"/>
+      <c r="Z98" s="7"/>
+      <c r="AA98" s="7"/>
+      <c r="AB98" s="7"/>
+      <c r="AC98" s="7"/>
+      <c r="AD98" s="7"/>
+      <c r="AE98" s="7"/>
+      <c r="AF98" s="7"/>
+      <c r="AG98" s="7"/>
+      <c r="AH98" s="7"/>
+      <c r="AI98" s="7"/>
+      <c r="AJ98" s="7"/>
+      <c r="AK98" s="7"/>
+      <c r="AL98" s="7"/>
+      <c r="AM98" s="7"/>
+      <c r="AN98" s="7"/>
+      <c r="AO98" s="7"/>
+      <c r="AP98" s="7"/>
+      <c r="AQ98" s="7"/>
+      <c r="AR98" s="7"/>
+      <c r="AS98" s="7"/>
+      <c r="AT98" s="7"/>
+      <c r="AU98" s="7"/>
+      <c r="AV98" s="7"/>
+      <c r="AW98" s="7"/>
+      <c r="AX98" s="7"/>
+      <c r="AY98" s="7"/>
+      <c r="AZ98" s="7"/>
+      <c r="BA98" s="7"/>
+      <c r="BB98" s="7"/>
     </row>
-    <row r="99" spans="5:54" x14ac:dyDescent="0.45">
-      <c r="E99" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="F99" s="7"/>
-      <c r="G99" s="7"/>
-      <c r="H99" s="7"/>
-      <c r="I99" s="7"/>
-      <c r="J99" s="7"/>
-      <c r="K99" s="7"/>
-      <c r="L99" s="7"/>
-      <c r="M99" s="7"/>
-      <c r="N99" s="7"/>
-      <c r="O99" s="7"/>
-      <c r="P99" s="7"/>
-      <c r="Q99" s="7"/>
-      <c r="R99" s="7"/>
-      <c r="S99" s="7"/>
-      <c r="T99" s="7"/>
-      <c r="U99" s="7"/>
-      <c r="V99" s="7"/>
-      <c r="W99" s="7"/>
-      <c r="X99" s="7"/>
-      <c r="Y99" s="7"/>
-      <c r="Z99" s="7"/>
-      <c r="AA99" s="7"/>
-      <c r="AB99" s="7"/>
-      <c r="AC99" s="7"/>
-      <c r="AD99" s="7"/>
-      <c r="AE99" s="7"/>
-      <c r="AF99" s="7"/>
-      <c r="AG99" s="7"/>
-      <c r="AH99" s="7"/>
-      <c r="AI99" s="7"/>
-      <c r="AJ99" s="7"/>
-      <c r="AK99" s="7"/>
-      <c r="AL99" s="7"/>
-      <c r="AM99" s="7"/>
-      <c r="AN99" s="7"/>
-      <c r="AO99" s="7"/>
-      <c r="AP99" s="7"/>
-      <c r="AQ99" s="7"/>
-      <c r="AR99" s="7"/>
-      <c r="AS99" s="7"/>
-      <c r="AT99" s="7"/>
-      <c r="AU99" s="7"/>
-      <c r="AV99" s="7"/>
-      <c r="AW99" s="7"/>
-      <c r="AX99" s="7"/>
-      <c r="AY99" s="7"/>
-      <c r="AZ99" s="7"/>
-      <c r="BA99" s="7"/>
-      <c r="BB99" s="7"/>
+    <row r="100" spans="5:54" x14ac:dyDescent="0.45">
+      <c r="G100" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="101" spans="5:54" x14ac:dyDescent="0.45">
       <c r="G101" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
     </row>
-    <row r="102" spans="5:54" x14ac:dyDescent="0.45">
-      <c r="G102" t="s">
-        <v>48</v>
-      </c>
+    <row r="118" spans="5:57" hidden="1" x14ac:dyDescent="0.45">
+      <c r="G118" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="H118" s="26"/>
+      <c r="I118" s="26"/>
+      <c r="J118" s="26"/>
+      <c r="K118" s="27"/>
+      <c r="L118" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="M118" s="26"/>
+      <c r="N118" s="26"/>
+      <c r="O118" s="26"/>
+      <c r="P118" s="26"/>
+      <c r="Q118" s="26"/>
+      <c r="R118" s="26"/>
+      <c r="S118" s="26"/>
+      <c r="T118" s="26"/>
+      <c r="U118" s="26"/>
+      <c r="V118" s="26"/>
+      <c r="W118" s="26"/>
+      <c r="X118" s="26"/>
+      <c r="Y118" s="26"/>
+      <c r="Z118" s="26"/>
+      <c r="AA118" s="26"/>
+      <c r="AB118" s="26"/>
+      <c r="AC118" s="26"/>
+      <c r="AD118" s="26"/>
+      <c r="AE118" s="26"/>
+      <c r="AF118" s="26"/>
+      <c r="AG118" s="26"/>
+      <c r="AH118" s="26"/>
+      <c r="AI118" s="27"/>
     </row>
-    <row r="118" spans="7:35" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="119" spans="7:35" x14ac:dyDescent="0.45">
-      <c r="G119" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="H119" s="24"/>
-      <c r="I119" s="24"/>
-      <c r="J119" s="24"/>
-      <c r="K119" s="25"/>
-      <c r="L119" s="28" t="s">
-        <v>49</v>
-      </c>
-      <c r="M119" s="24"/>
-      <c r="N119" s="24"/>
-      <c r="O119" s="24"/>
-      <c r="P119" s="24"/>
-      <c r="Q119" s="24"/>
-      <c r="R119" s="24"/>
-      <c r="S119" s="24"/>
-      <c r="T119" s="24"/>
-      <c r="U119" s="24"/>
-      <c r="V119" s="24"/>
-      <c r="W119" s="24"/>
-      <c r="X119" s="24"/>
-      <c r="Y119" s="24"/>
-      <c r="Z119" s="24"/>
-      <c r="AA119" s="24"/>
-      <c r="AB119" s="24"/>
-      <c r="AC119" s="24"/>
-      <c r="AD119" s="24"/>
-      <c r="AE119" s="24"/>
-      <c r="AF119" s="24"/>
-      <c r="AG119" s="24"/>
-      <c r="AH119" s="24"/>
-      <c r="AI119" s="25"/>
+    <row r="119" spans="5:57" hidden="1" x14ac:dyDescent="0.45">
+      <c r="G119" s="28"/>
+      <c r="H119" s="20"/>
+      <c r="I119" s="20"/>
+      <c r="J119" s="20"/>
+      <c r="K119" s="21"/>
+      <c r="L119" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="M119" s="32"/>
+      <c r="N119" s="32"/>
+      <c r="O119" s="32"/>
+      <c r="P119" s="32"/>
+      <c r="Q119" s="32"/>
+      <c r="R119" s="32"/>
+      <c r="S119" s="32"/>
+      <c r="T119" s="32"/>
+      <c r="U119" s="32"/>
+      <c r="V119" s="32"/>
+      <c r="W119" s="32"/>
+      <c r="X119" s="32"/>
+      <c r="Y119" s="32"/>
+      <c r="Z119" s="32"/>
+      <c r="AA119" s="32"/>
+      <c r="AB119" s="32"/>
+      <c r="AC119" s="32"/>
+      <c r="AD119" s="32"/>
+      <c r="AE119" s="32"/>
+      <c r="AF119" s="32"/>
+      <c r="AG119" s="32"/>
+      <c r="AH119" s="32"/>
+      <c r="AI119" s="33"/>
     </row>
-    <row r="120" spans="7:35" x14ac:dyDescent="0.45">
-      <c r="G120" s="26"/>
-      <c r="H120" s="18"/>
-      <c r="I120" s="18"/>
-      <c r="J120" s="18"/>
-      <c r="K120" s="19"/>
-      <c r="L120" s="29" t="s">
-        <v>50</v>
-      </c>
-      <c r="M120" s="30"/>
-      <c r="N120" s="30"/>
-      <c r="O120" s="30"/>
-      <c r="P120" s="30"/>
-      <c r="Q120" s="30"/>
-      <c r="R120" s="30"/>
-      <c r="S120" s="30"/>
-      <c r="T120" s="30"/>
-      <c r="U120" s="30"/>
-      <c r="V120" s="30"/>
-      <c r="W120" s="30"/>
-      <c r="X120" s="30"/>
-      <c r="Y120" s="30"/>
-      <c r="Z120" s="30"/>
-      <c r="AA120" s="30"/>
-      <c r="AB120" s="30"/>
-      <c r="AC120" s="30"/>
-      <c r="AD120" s="30"/>
-      <c r="AE120" s="30"/>
-      <c r="AF120" s="30"/>
-      <c r="AG120" s="30"/>
-      <c r="AH120" s="30"/>
-      <c r="AI120" s="31"/>
+    <row r="120" spans="5:57" hidden="1" x14ac:dyDescent="0.45">
+      <c r="G120" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="H120" s="20"/>
+      <c r="I120" s="20"/>
+      <c r="J120" s="20"/>
+      <c r="K120" s="21"/>
+      <c r="L120" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="M120" s="20"/>
+      <c r="N120" s="20"/>
+      <c r="O120" s="20"/>
+      <c r="P120" s="20"/>
+      <c r="Q120" s="20"/>
+      <c r="R120" s="20"/>
+      <c r="S120" s="20"/>
+      <c r="T120" s="20"/>
+      <c r="U120" s="20"/>
+      <c r="V120" s="20"/>
+      <c r="W120" s="20"/>
+      <c r="X120" s="20"/>
+      <c r="Y120" s="20"/>
+      <c r="Z120" s="20"/>
+      <c r="AA120" s="20"/>
+      <c r="AB120" s="20"/>
+      <c r="AC120" s="20"/>
+      <c r="AD120" s="20"/>
+      <c r="AE120" s="20"/>
+      <c r="AF120" s="20"/>
+      <c r="AG120" s="20"/>
+      <c r="AH120" s="20"/>
+      <c r="AI120" s="21"/>
     </row>
-    <row r="121" spans="7:35" x14ac:dyDescent="0.45">
-      <c r="G121" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="H121" s="18"/>
-      <c r="I121" s="18"/>
-      <c r="J121" s="18"/>
-      <c r="K121" s="19"/>
-      <c r="L121" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="M121" s="18"/>
-      <c r="N121" s="18"/>
-      <c r="O121" s="18"/>
-      <c r="P121" s="18"/>
-      <c r="Q121" s="18"/>
-      <c r="R121" s="18"/>
-      <c r="S121" s="18"/>
-      <c r="T121" s="18"/>
-      <c r="U121" s="18"/>
-      <c r="V121" s="18"/>
-      <c r="W121" s="18"/>
-      <c r="X121" s="18"/>
-      <c r="Y121" s="18"/>
-      <c r="Z121" s="18"/>
-      <c r="AA121" s="18"/>
-      <c r="AB121" s="18"/>
-      <c r="AC121" s="18"/>
-      <c r="AD121" s="18"/>
-      <c r="AE121" s="18"/>
-      <c r="AF121" s="18"/>
-      <c r="AG121" s="18"/>
-      <c r="AH121" s="18"/>
-      <c r="AI121" s="19"/>
+    <row r="121" spans="5:57" hidden="1" x14ac:dyDescent="0.45">
+      <c r="G121" s="28"/>
+      <c r="H121" s="20"/>
+      <c r="I121" s="20"/>
+      <c r="J121" s="20"/>
+      <c r="K121" s="21"/>
+      <c r="L121" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="M121" s="20"/>
+      <c r="N121" s="20"/>
+      <c r="O121" s="20"/>
+      <c r="P121" s="20"/>
+      <c r="Q121" s="20"/>
+      <c r="R121" s="20"/>
+      <c r="S121" s="20"/>
+      <c r="T121" s="20"/>
+      <c r="U121" s="20"/>
+      <c r="V121" s="20"/>
+      <c r="W121" s="20"/>
+      <c r="X121" s="20"/>
+      <c r="Y121" s="20"/>
+      <c r="Z121" s="20"/>
+      <c r="AA121" s="20"/>
+      <c r="AB121" s="20"/>
+      <c r="AC121" s="20"/>
+      <c r="AD121" s="20"/>
+      <c r="AE121" s="20"/>
+      <c r="AF121" s="20"/>
+      <c r="AG121" s="20"/>
+      <c r="AH121" s="20"/>
+      <c r="AI121" s="21"/>
     </row>
-    <row r="122" spans="7:35" x14ac:dyDescent="0.45">
-      <c r="G122" s="26"/>
-      <c r="H122" s="18"/>
-      <c r="I122" s="18"/>
-      <c r="J122" s="18"/>
-      <c r="K122" s="19"/>
-      <c r="L122" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="M122" s="18"/>
-      <c r="N122" s="18"/>
-      <c r="O122" s="18"/>
-      <c r="P122" s="18"/>
-      <c r="Q122" s="18"/>
-      <c r="R122" s="18"/>
-      <c r="S122" s="18"/>
-      <c r="T122" s="18"/>
-      <c r="U122" s="18"/>
-      <c r="V122" s="18"/>
-      <c r="W122" s="18"/>
-      <c r="X122" s="18"/>
-      <c r="Y122" s="18"/>
-      <c r="Z122" s="18"/>
-      <c r="AA122" s="18"/>
-      <c r="AB122" s="18"/>
-      <c r="AC122" s="18"/>
-      <c r="AD122" s="18"/>
-      <c r="AE122" s="18"/>
-      <c r="AF122" s="18"/>
-      <c r="AG122" s="18"/>
-      <c r="AH122" s="18"/>
-      <c r="AI122" s="19"/>
+    <row r="122" spans="5:57" hidden="1" x14ac:dyDescent="0.45">
+      <c r="G122" s="28"/>
+      <c r="H122" s="20"/>
+      <c r="I122" s="20"/>
+      <c r="J122" s="20"/>
+      <c r="K122" s="21"/>
+      <c r="L122" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="M122" s="20"/>
+      <c r="N122" s="20"/>
+      <c r="O122" s="20"/>
+      <c r="P122" s="20"/>
+      <c r="Q122" s="20"/>
+      <c r="R122" s="20"/>
+      <c r="S122" s="20"/>
+      <c r="T122" s="20"/>
+      <c r="U122" s="20"/>
+      <c r="V122" s="20"/>
+      <c r="W122" s="20"/>
+      <c r="X122" s="20"/>
+      <c r="Y122" s="20"/>
+      <c r="Z122" s="20"/>
+      <c r="AA122" s="20"/>
+      <c r="AB122" s="20"/>
+      <c r="AC122" s="20"/>
+      <c r="AD122" s="20"/>
+      <c r="AE122" s="20"/>
+      <c r="AF122" s="20"/>
+      <c r="AG122" s="20"/>
+      <c r="AH122" s="20"/>
+      <c r="AI122" s="21"/>
     </row>
-    <row r="123" spans="7:35" x14ac:dyDescent="0.45">
-      <c r="G123" s="26"/>
-      <c r="H123" s="18"/>
-      <c r="I123" s="18"/>
-      <c r="J123" s="18"/>
-      <c r="K123" s="19"/>
-      <c r="L123" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="M123" s="18"/>
-      <c r="N123" s="18"/>
-      <c r="O123" s="18"/>
-      <c r="P123" s="18"/>
-      <c r="Q123" s="18"/>
-      <c r="R123" s="18"/>
-      <c r="S123" s="18"/>
-      <c r="T123" s="18"/>
-      <c r="U123" s="18"/>
-      <c r="V123" s="18"/>
-      <c r="W123" s="18"/>
-      <c r="X123" s="18"/>
-      <c r="Y123" s="18"/>
-      <c r="Z123" s="18"/>
-      <c r="AA123" s="18"/>
-      <c r="AB123" s="18"/>
-      <c r="AC123" s="18"/>
-      <c r="AD123" s="18"/>
-      <c r="AE123" s="18"/>
-      <c r="AF123" s="18"/>
-      <c r="AG123" s="18"/>
-      <c r="AH123" s="18"/>
-      <c r="AI123" s="19"/>
+    <row r="123" spans="5:57" hidden="1" x14ac:dyDescent="0.45">
+      <c r="G123" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="H123" s="20"/>
+      <c r="I123" s="20"/>
+      <c r="J123" s="20"/>
+      <c r="K123" s="21"/>
+      <c r="L123" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="M123" s="20"/>
+      <c r="N123" s="20"/>
+      <c r="O123" s="20"/>
+      <c r="P123" s="20"/>
+      <c r="Q123" s="20"/>
+      <c r="R123" s="20"/>
+      <c r="S123" s="20"/>
+      <c r="T123" s="20"/>
+      <c r="U123" s="20"/>
+      <c r="V123" s="20"/>
+      <c r="W123" s="20"/>
+      <c r="X123" s="20"/>
+      <c r="Y123" s="20"/>
+      <c r="Z123" s="20"/>
+      <c r="AA123" s="20"/>
+      <c r="AB123" s="20"/>
+      <c r="AC123" s="20"/>
+      <c r="AD123" s="20"/>
+      <c r="AE123" s="20"/>
+      <c r="AF123" s="20"/>
+      <c r="AG123" s="20"/>
+      <c r="AH123" s="20"/>
+      <c r="AI123" s="21"/>
     </row>
-    <row r="124" spans="7:35" x14ac:dyDescent="0.45">
-      <c r="G124" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="H124" s="18"/>
-      <c r="I124" s="18"/>
-      <c r="J124" s="18"/>
-      <c r="K124" s="19"/>
-      <c r="L124" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="M124" s="18"/>
-      <c r="N124" s="18"/>
-      <c r="O124" s="18"/>
-      <c r="P124" s="18"/>
-      <c r="Q124" s="18"/>
-      <c r="R124" s="18"/>
-      <c r="S124" s="18"/>
-      <c r="T124" s="18"/>
-      <c r="U124" s="18"/>
-      <c r="V124" s="18"/>
-      <c r="W124" s="18"/>
-      <c r="X124" s="18"/>
-      <c r="Y124" s="18"/>
-      <c r="Z124" s="18"/>
-      <c r="AA124" s="18"/>
-      <c r="AB124" s="18"/>
-      <c r="AC124" s="18"/>
-      <c r="AD124" s="18"/>
-      <c r="AE124" s="18"/>
-      <c r="AF124" s="18"/>
-      <c r="AG124" s="18"/>
-      <c r="AH124" s="18"/>
-      <c r="AI124" s="19"/>
+    <row r="124" spans="5:57" hidden="1" x14ac:dyDescent="0.45">
+      <c r="G124" s="28"/>
+      <c r="H124" s="20"/>
+      <c r="I124" s="20"/>
+      <c r="J124" s="20"/>
+      <c r="K124" s="21"/>
+      <c r="L124" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="M124" s="20"/>
+      <c r="N124" s="20"/>
+      <c r="O124" s="20"/>
+      <c r="P124" s="20"/>
+      <c r="Q124" s="20"/>
+      <c r="R124" s="20"/>
+      <c r="S124" s="20"/>
+      <c r="T124" s="20"/>
+      <c r="U124" s="20"/>
+      <c r="V124" s="20"/>
+      <c r="W124" s="20"/>
+      <c r="X124" s="20"/>
+      <c r="Y124" s="20"/>
+      <c r="Z124" s="20"/>
+      <c r="AA124" s="20"/>
+      <c r="AB124" s="20"/>
+      <c r="AC124" s="20"/>
+      <c r="AD124" s="20"/>
+      <c r="AE124" s="20"/>
+      <c r="AF124" s="20"/>
+      <c r="AG124" s="20"/>
+      <c r="AH124" s="20"/>
+      <c r="AI124" s="21"/>
     </row>
-    <row r="125" spans="7:35" x14ac:dyDescent="0.45">
-      <c r="G125" s="26"/>
-      <c r="H125" s="18"/>
-      <c r="I125" s="18"/>
-      <c r="J125" s="18"/>
-      <c r="K125" s="19"/>
-      <c r="L125" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="M125" s="18"/>
-      <c r="N125" s="18"/>
-      <c r="O125" s="18"/>
-      <c r="P125" s="18"/>
-      <c r="Q125" s="18"/>
-      <c r="R125" s="18"/>
-      <c r="S125" s="18"/>
-      <c r="T125" s="18"/>
-      <c r="U125" s="18"/>
-      <c r="V125" s="18"/>
-      <c r="W125" s="18"/>
-      <c r="X125" s="18"/>
-      <c r="Y125" s="18"/>
-      <c r="Z125" s="18"/>
-      <c r="AA125" s="18"/>
-      <c r="AB125" s="18"/>
-      <c r="AC125" s="18"/>
-      <c r="AD125" s="18"/>
-      <c r="AE125" s="18"/>
-      <c r="AF125" s="18"/>
-      <c r="AG125" s="18"/>
-      <c r="AH125" s="18"/>
-      <c r="AI125" s="19"/>
+    <row r="125" spans="5:57" ht="18.600000000000001" hidden="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="G125" s="29"/>
+      <c r="H125" s="23"/>
+      <c r="I125" s="23"/>
+      <c r="J125" s="23"/>
+      <c r="K125" s="24"/>
+      <c r="L125" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="M125" s="23"/>
+      <c r="N125" s="23"/>
+      <c r="O125" s="23"/>
+      <c r="P125" s="23"/>
+      <c r="Q125" s="23"/>
+      <c r="R125" s="23"/>
+      <c r="S125" s="23"/>
+      <c r="T125" s="23"/>
+      <c r="U125" s="23"/>
+      <c r="V125" s="23"/>
+      <c r="W125" s="23"/>
+      <c r="X125" s="23"/>
+      <c r="Y125" s="23"/>
+      <c r="Z125" s="23"/>
+      <c r="AA125" s="23"/>
+      <c r="AB125" s="23"/>
+      <c r="AC125" s="23"/>
+      <c r="AD125" s="23"/>
+      <c r="AE125" s="23"/>
+      <c r="AF125" s="23"/>
+      <c r="AG125" s="23"/>
+      <c r="AH125" s="23"/>
+      <c r="AI125" s="24"/>
     </row>
-    <row r="126" spans="7:35" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="G126" s="27"/>
-      <c r="H126" s="21"/>
-      <c r="I126" s="21"/>
-      <c r="J126" s="21"/>
-      <c r="K126" s="22"/>
-      <c r="L126" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="M126" s="21"/>
-      <c r="N126" s="21"/>
-      <c r="O126" s="21"/>
-      <c r="P126" s="21"/>
-      <c r="Q126" s="21"/>
-      <c r="R126" s="21"/>
-      <c r="S126" s="21"/>
-      <c r="T126" s="21"/>
-      <c r="U126" s="21"/>
-      <c r="V126" s="21"/>
-      <c r="W126" s="21"/>
-      <c r="X126" s="21"/>
-      <c r="Y126" s="21"/>
-      <c r="Z126" s="21"/>
-      <c r="AA126" s="21"/>
-      <c r="AB126" s="21"/>
-      <c r="AC126" s="21"/>
-      <c r="AD126" s="21"/>
-      <c r="AE126" s="21"/>
-      <c r="AF126" s="21"/>
-      <c r="AG126" s="21"/>
-      <c r="AH126" s="21"/>
-      <c r="AI126" s="22"/>
+    <row r="128" spans="5:57" x14ac:dyDescent="0.45">
+      <c r="E128" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="F128" s="6"/>
+      <c r="G128" s="6"/>
+      <c r="H128" s="6"/>
+      <c r="I128" s="6"/>
+      <c r="J128" s="6"/>
+      <c r="K128" s="6"/>
+      <c r="L128" s="6"/>
+      <c r="M128" s="6"/>
+      <c r="N128" s="6"/>
+      <c r="O128" s="6"/>
+      <c r="P128" s="6"/>
+      <c r="Q128" s="6"/>
+      <c r="R128" s="6"/>
+      <c r="S128" s="6"/>
+      <c r="T128" s="6"/>
+      <c r="U128" s="6"/>
+      <c r="V128" s="6"/>
+      <c r="W128" s="6"/>
+      <c r="X128" s="6"/>
+      <c r="Y128" s="6"/>
+      <c r="Z128" s="6"/>
+      <c r="AA128" s="6"/>
+      <c r="AB128" s="6"/>
+      <c r="AC128" s="6"/>
+      <c r="AD128" s="6"/>
+      <c r="AE128" s="6"/>
+      <c r="AF128" s="6"/>
+      <c r="AG128" s="6"/>
+      <c r="AH128" s="6"/>
+      <c r="AI128" s="6"/>
+      <c r="AJ128" s="6"/>
+      <c r="AK128" s="6"/>
+      <c r="AL128" s="6"/>
+      <c r="AM128" s="6"/>
+      <c r="AN128" s="6"/>
+      <c r="AO128" s="6"/>
+      <c r="AP128" s="6"/>
+      <c r="AQ128" s="6"/>
+      <c r="AR128" s="6"/>
+      <c r="AS128" s="6"/>
+      <c r="AT128" s="6"/>
+      <c r="AU128" s="6"/>
+      <c r="AV128" s="6"/>
+      <c r="AW128" s="6"/>
+      <c r="AX128" s="6"/>
+      <c r="AY128" s="6"/>
+      <c r="AZ128" s="6"/>
+      <c r="BA128" s="6"/>
+      <c r="BB128" s="6"/>
+      <c r="BE128" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="129" spans="5:57" x14ac:dyDescent="0.45">
-      <c r="E129" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="F129" s="6"/>
-      <c r="G129" s="6"/>
-      <c r="H129" s="6"/>
-      <c r="I129" s="6"/>
-      <c r="J129" s="6"/>
-      <c r="K129" s="6"/>
-      <c r="L129" s="6"/>
-      <c r="M129" s="6"/>
-      <c r="N129" s="6"/>
-      <c r="O129" s="6"/>
-      <c r="P129" s="6"/>
-      <c r="Q129" s="6"/>
-      <c r="R129" s="6"/>
-      <c r="S129" s="6"/>
-      <c r="T129" s="6"/>
-      <c r="U129" s="6"/>
-      <c r="V129" s="6"/>
-      <c r="W129" s="6"/>
-      <c r="X129" s="6"/>
-      <c r="Y129" s="6"/>
-      <c r="Z129" s="6"/>
-      <c r="AA129" s="6"/>
-      <c r="AB129" s="6"/>
-      <c r="AC129" s="6"/>
-      <c r="AD129" s="6"/>
-      <c r="AE129" s="6"/>
-      <c r="AF129" s="6"/>
-      <c r="AG129" s="6"/>
-      <c r="AH129" s="6"/>
-      <c r="AI129" s="6"/>
-      <c r="AJ129" s="6"/>
-      <c r="AK129" s="6"/>
-      <c r="AL129" s="6"/>
-      <c r="AM129" s="6"/>
-      <c r="AN129" s="6"/>
-      <c r="AO129" s="6"/>
-      <c r="AP129" s="6"/>
-      <c r="AQ129" s="6"/>
-      <c r="AR129" s="6"/>
-      <c r="AS129" s="6"/>
-      <c r="AT129" s="6"/>
-      <c r="AU129" s="6"/>
-      <c r="AV129" s="6"/>
-      <c r="AW129" s="6"/>
-      <c r="AX129" s="6"/>
-      <c r="AY129" s="6"/>
-      <c r="AZ129" s="6"/>
-      <c r="BA129" s="6"/>
-      <c r="BB129" s="6"/>
-      <c r="BE129" t="s">
-        <v>42</v>
+    <row r="130" spans="6:25" x14ac:dyDescent="0.45">
+      <c r="F130" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="131" spans="5:57" x14ac:dyDescent="0.45">
+    <row r="131" spans="6:25" x14ac:dyDescent="0.45">
       <c r="F131" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="132" spans="5:57" x14ac:dyDescent="0.45">
+    <row r="132" spans="6:25" x14ac:dyDescent="0.45">
       <c r="F132" t="s">
+        <v>65</v>
+      </c>
+      <c r="P132" s="8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="133" spans="6:25" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="134" spans="6:25" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="F134" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="G134" s="41"/>
+      <c r="H134" s="41"/>
+      <c r="I134" s="41"/>
+      <c r="J134" s="41"/>
+      <c r="K134" s="41"/>
+      <c r="L134" s="41"/>
+      <c r="M134" s="41"/>
+      <c r="N134" s="41"/>
+      <c r="O134" s="41"/>
+      <c r="P134" s="41"/>
+      <c r="Q134" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="R134" s="41"/>
+      <c r="S134" s="41"/>
+      <c r="T134" s="41"/>
+      <c r="U134" s="41"/>
+      <c r="V134" s="41"/>
+      <c r="W134" s="41"/>
+      <c r="X134" s="41"/>
+      <c r="Y134" s="42"/>
+    </row>
+    <row r="135" spans="6:25" x14ac:dyDescent="0.45">
+      <c r="F135" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="G135" s="43"/>
+      <c r="H135" s="43"/>
+      <c r="I135" s="43"/>
+      <c r="J135" s="43"/>
+      <c r="K135" s="43"/>
+      <c r="L135" s="43"/>
+      <c r="M135" s="43"/>
+      <c r="N135" s="43"/>
+      <c r="O135" s="43"/>
+      <c r="P135" s="43"/>
+      <c r="Q135" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="R135" s="43"/>
+      <c r="S135" s="43"/>
+      <c r="T135" s="43"/>
+      <c r="U135" s="43"/>
+      <c r="V135" s="43"/>
+      <c r="W135" s="43"/>
+      <c r="X135" s="43"/>
+      <c r="Y135" s="44"/>
+    </row>
+    <row r="136" spans="6:25" x14ac:dyDescent="0.45">
+      <c r="F136" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="G136" s="32"/>
+      <c r="H136" s="32"/>
+      <c r="I136" s="32"/>
+      <c r="J136" s="32"/>
+      <c r="K136" s="32"/>
+      <c r="L136" s="32"/>
+      <c r="M136" s="32"/>
+      <c r="N136" s="32"/>
+      <c r="O136" s="32"/>
+      <c r="P136" s="32"/>
+      <c r="Q136" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="R136" s="32"/>
+      <c r="S136" s="32"/>
+      <c r="T136" s="32"/>
+      <c r="U136" s="32"/>
+      <c r="V136" s="32"/>
+      <c r="W136" s="32"/>
+      <c r="X136" s="32"/>
+      <c r="Y136" s="33"/>
+    </row>
+    <row r="137" spans="6:25" x14ac:dyDescent="0.45">
+      <c r="F137" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="G137" s="32"/>
+      <c r="H137" s="32"/>
+      <c r="I137" s="32"/>
+      <c r="J137" s="32"/>
+      <c r="K137" s="32"/>
+      <c r="L137" s="32"/>
+      <c r="M137" s="32"/>
+      <c r="N137" s="32"/>
+      <c r="O137" s="32"/>
+      <c r="P137" s="32"/>
+      <c r="Q137" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="R137" s="32"/>
+      <c r="S137" s="32"/>
+      <c r="T137" s="32"/>
+      <c r="U137" s="32"/>
+      <c r="V137" s="32"/>
+      <c r="W137" s="32"/>
+      <c r="X137" s="32"/>
+      <c r="Y137" s="33"/>
+    </row>
+    <row r="138" spans="6:25" x14ac:dyDescent="0.45">
+      <c r="F138" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="G138" s="32"/>
+      <c r="H138" s="32"/>
+      <c r="I138" s="32"/>
+      <c r="J138" s="32"/>
+      <c r="K138" s="32"/>
+      <c r="L138" s="32"/>
+      <c r="M138" s="32"/>
+      <c r="N138" s="32"/>
+      <c r="O138" s="32"/>
+      <c r="P138" s="32"/>
+      <c r="Q138" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="R138" s="32"/>
+      <c r="S138" s="32"/>
+      <c r="T138" s="32"/>
+      <c r="U138" s="32"/>
+      <c r="V138" s="32"/>
+      <c r="W138" s="32"/>
+      <c r="X138" s="32"/>
+      <c r="Y138" s="33"/>
+    </row>
+    <row r="139" spans="6:25" x14ac:dyDescent="0.45">
+      <c r="F139" s="37" t="s">
         <v>29</v>
       </c>
+      <c r="G139" s="32"/>
+      <c r="H139" s="32"/>
+      <c r="I139" s="32"/>
+      <c r="J139" s="32"/>
+      <c r="K139" s="32"/>
+      <c r="L139" s="32"/>
+      <c r="M139" s="32"/>
+      <c r="N139" s="32"/>
+      <c r="O139" s="32"/>
+      <c r="P139" s="32"/>
+      <c r="Q139" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="R139" s="32"/>
+      <c r="S139" s="32"/>
+      <c r="T139" s="32"/>
+      <c r="U139" s="32"/>
+      <c r="V139" s="32"/>
+      <c r="W139" s="32"/>
+      <c r="X139" s="32"/>
+      <c r="Y139" s="33"/>
     </row>
-    <row r="133" spans="5:57" x14ac:dyDescent="0.45">
-      <c r="F133" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="134" spans="5:57" x14ac:dyDescent="0.45">
-      <c r="F134" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="135" spans="5:57" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="136" spans="5:57" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="F136" s="40" t="s">
-        <v>26</v>
-      </c>
-      <c r="G136" s="36"/>
-      <c r="H136" s="36"/>
-      <c r="I136" s="36"/>
-      <c r="J136" s="36"/>
-      <c r="K136" s="36"/>
-      <c r="L136" s="36"/>
-      <c r="M136" s="36"/>
-      <c r="N136" s="36"/>
-      <c r="O136" s="36"/>
-      <c r="P136" s="36"/>
-      <c r="Q136" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="R136" s="36"/>
-      <c r="S136" s="36"/>
-      <c r="T136" s="36"/>
-      <c r="U136" s="36"/>
-      <c r="V136" s="36"/>
-      <c r="W136" s="36"/>
-      <c r="X136" s="36"/>
-      <c r="Y136" s="37"/>
-    </row>
-    <row r="137" spans="5:57" x14ac:dyDescent="0.45">
-      <c r="F137" s="41" t="s">
-        <v>27</v>
-      </c>
-      <c r="G137" s="38"/>
-      <c r="H137" s="38"/>
-      <c r="I137" s="38"/>
-      <c r="J137" s="38"/>
-      <c r="K137" s="38"/>
-      <c r="L137" s="38"/>
-      <c r="M137" s="38"/>
-      <c r="N137" s="38"/>
-      <c r="O137" s="38"/>
-      <c r="P137" s="38"/>
-      <c r="Q137" s="38" t="s">
-        <v>7</v>
-      </c>
-      <c r="R137" s="38"/>
-      <c r="S137" s="38"/>
-      <c r="T137" s="38"/>
-      <c r="U137" s="38"/>
-      <c r="V137" s="38"/>
-      <c r="W137" s="38"/>
-      <c r="X137" s="38"/>
-      <c r="Y137" s="39"/>
-    </row>
-    <row r="138" spans="5:57" x14ac:dyDescent="0.45">
-      <c r="F138" s="35" t="s">
-        <v>43</v>
-      </c>
-      <c r="G138" s="30"/>
-      <c r="H138" s="30"/>
-      <c r="I138" s="30"/>
-      <c r="J138" s="30"/>
-      <c r="K138" s="30"/>
-      <c r="L138" s="30"/>
-      <c r="M138" s="30"/>
-      <c r="N138" s="30"/>
-      <c r="O138" s="30"/>
-      <c r="P138" s="30"/>
-      <c r="Q138" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="R138" s="30"/>
-      <c r="S138" s="30"/>
-      <c r="T138" s="30"/>
-      <c r="U138" s="30"/>
-      <c r="V138" s="30"/>
-      <c r="W138" s="30"/>
-      <c r="X138" s="30"/>
-      <c r="Y138" s="31"/>
-    </row>
-    <row r="139" spans="5:57" x14ac:dyDescent="0.45">
-      <c r="F139" s="35" t="s">
-        <v>31</v>
-      </c>
-      <c r="G139" s="30"/>
-      <c r="H139" s="30"/>
-      <c r="I139" s="30"/>
-      <c r="J139" s="30"/>
-      <c r="K139" s="30"/>
-      <c r="L139" s="30"/>
-      <c r="M139" s="30"/>
-      <c r="N139" s="30"/>
-      <c r="O139" s="30"/>
-      <c r="P139" s="30"/>
-      <c r="Q139" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="R139" s="30"/>
-      <c r="S139" s="30"/>
-      <c r="T139" s="30"/>
-      <c r="U139" s="30"/>
-      <c r="V139" s="30"/>
-      <c r="W139" s="30"/>
-      <c r="X139" s="30"/>
-      <c r="Y139" s="31"/>
-    </row>
-    <row r="140" spans="5:57" x14ac:dyDescent="0.45">
-      <c r="F140" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="G140" s="30"/>
-      <c r="H140" s="30"/>
-      <c r="I140" s="30"/>
-      <c r="J140" s="30"/>
-      <c r="K140" s="30"/>
-      <c r="L140" s="30"/>
-      <c r="M140" s="30"/>
-      <c r="N140" s="30"/>
-      <c r="O140" s="30"/>
-      <c r="P140" s="30"/>
-      <c r="Q140" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="R140" s="30"/>
-      <c r="S140" s="30"/>
-      <c r="T140" s="30"/>
-      <c r="U140" s="30"/>
-      <c r="V140" s="30"/>
-      <c r="W140" s="30"/>
-      <c r="X140" s="30"/>
-      <c r="Y140" s="31"/>
-    </row>
-    <row r="141" spans="5:57" x14ac:dyDescent="0.45">
-      <c r="F141" s="35" t="s">
-        <v>33</v>
-      </c>
-      <c r="G141" s="30"/>
-      <c r="H141" s="30"/>
-      <c r="I141" s="30"/>
-      <c r="J141" s="30"/>
-      <c r="K141" s="30"/>
-      <c r="L141" s="30"/>
-      <c r="M141" s="30"/>
-      <c r="N141" s="30"/>
-      <c r="O141" s="30"/>
-      <c r="P141" s="30"/>
-      <c r="Q141" s="30" t="s">
+    <row r="140" spans="6:25" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="F140" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="R141" s="30"/>
-      <c r="S141" s="30"/>
-      <c r="T141" s="30"/>
-      <c r="U141" s="30"/>
-      <c r="V141" s="30"/>
-      <c r="W141" s="30"/>
-      <c r="X141" s="30"/>
-      <c r="Y141" s="31"/>
-    </row>
-    <row r="142" spans="5:57" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="F142" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="G142" s="33"/>
-      <c r="H142" s="33"/>
-      <c r="I142" s="33"/>
-      <c r="J142" s="33"/>
-      <c r="K142" s="33"/>
-      <c r="L142" s="33"/>
-      <c r="M142" s="33"/>
-      <c r="N142" s="33"/>
-      <c r="O142" s="33"/>
-      <c r="P142" s="33"/>
-      <c r="Q142" s="33"/>
-      <c r="R142" s="33"/>
-      <c r="S142" s="33"/>
-      <c r="T142" s="33"/>
-      <c r="U142" s="33"/>
-      <c r="V142" s="33"/>
-      <c r="W142" s="33"/>
-      <c r="X142" s="33"/>
-      <c r="Y142" s="34"/>
+      <c r="G140" s="39"/>
+      <c r="H140" s="39"/>
+      <c r="I140" s="39"/>
+      <c r="J140" s="39"/>
+      <c r="K140" s="39"/>
+      <c r="L140" s="39"/>
+      <c r="M140" s="39"/>
+      <c r="N140" s="39"/>
+      <c r="O140" s="39"/>
+      <c r="P140" s="39"/>
+      <c r="Q140" s="39"/>
+      <c r="R140" s="39"/>
+      <c r="S140" s="39"/>
+      <c r="T140" s="39"/>
+      <c r="U140" s="39"/>
+      <c r="V140" s="39"/>
+      <c r="W140" s="39"/>
+      <c r="X140" s="39"/>
+      <c r="Y140" s="40"/>
     </row>
   </sheetData>
-  <mergeCells count="43">
+  <mergeCells count="41">
     <mergeCell ref="A1:J2"/>
+    <mergeCell ref="G95:K95"/>
     <mergeCell ref="G96:K96"/>
-    <mergeCell ref="G97:K97"/>
+    <mergeCell ref="L95:AD95"/>
     <mergeCell ref="L96:AD96"/>
-    <mergeCell ref="L97:AD97"/>
     <mergeCell ref="G43:M43"/>
     <mergeCell ref="G44:M44"/>
     <mergeCell ref="G45:M45"/>
     <mergeCell ref="N43:AF43"/>
-    <mergeCell ref="F72:J72"/>
+    <mergeCell ref="F71:J71"/>
     <mergeCell ref="K69:AJ69"/>
     <mergeCell ref="K70:AJ70"/>
     <mergeCell ref="K71:AJ71"/>
-    <mergeCell ref="K72:AJ72"/>
     <mergeCell ref="N44:AF44"/>
     <mergeCell ref="N45:AF45"/>
     <mergeCell ref="F69:J69"/>
     <mergeCell ref="F70:J70"/>
-    <mergeCell ref="F71:J71"/>
-    <mergeCell ref="F142:Y142"/>
-    <mergeCell ref="F141:P141"/>
+    <mergeCell ref="F140:Y140"/>
+    <mergeCell ref="F139:P139"/>
+    <mergeCell ref="Q134:Y134"/>
+    <mergeCell ref="Q135:Y135"/>
     <mergeCell ref="Q136:Y136"/>
     <mergeCell ref="Q137:Y137"/>
     <mergeCell ref="Q138:Y138"/>
     <mergeCell ref="Q139:Y139"/>
-    <mergeCell ref="Q140:Y140"/>
-    <mergeCell ref="Q141:Y141"/>
-    <mergeCell ref="F140:P140"/>
+    <mergeCell ref="F138:P138"/>
+    <mergeCell ref="F134:P134"/>
+    <mergeCell ref="F135:P135"/>
     <mergeCell ref="F136:P136"/>
     <mergeCell ref="F137:P137"/>
-    <mergeCell ref="F138:P138"/>
-    <mergeCell ref="F139:P139"/>
+    <mergeCell ref="L124:AI124"/>
     <mergeCell ref="L125:AI125"/>
-    <mergeCell ref="L126:AI126"/>
-    <mergeCell ref="G119:K120"/>
-    <mergeCell ref="G121:K123"/>
-    <mergeCell ref="G124:K126"/>
+    <mergeCell ref="G118:K119"/>
+    <mergeCell ref="G120:K122"/>
+    <mergeCell ref="G123:K125"/>
+    <mergeCell ref="L118:AI118"/>
     <mergeCell ref="L119:AI119"/>
     <mergeCell ref="L120:AI120"/>
     <mergeCell ref="L121:AI121"/>
     <mergeCell ref="L122:AI122"/>
     <mergeCell ref="L123:AI123"/>
-    <mergeCell ref="L124:AI124"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="P132" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>